--- a/data/dataA/生活水平.xlsx
+++ b/data/dataA/生活水平.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="14055" activeTab="4"/>
+    <workbookView windowWidth="15360" windowHeight="13380" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="人均可支配收入" sheetId="1" r:id="rId1"/>
@@ -15,22 +15,32 @@
     <sheet name="农村居民人均收入" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">城镇居民人均收入!$A$2:$M$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">城镇居民消费支出!$A$2:$M$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">农村居民人均收入!$A$2:$M$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">农村居民消费支出!$A$2:$M$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">人均可支配收入!$A$2:$I$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">人均消费支出!$A$2:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">城镇居民人均收入!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">城镇居民消费支出!$A$1:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">农村居民人均收入!$A$1:$M$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">农村居民消费支出!$A$1:$M$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">人均可支配收入!$A$1:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">人均消费支出!$A$1:$I$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
-  <si>
-    <t>disposableIcome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
   <si>
     <t>城市名称</t>
   </si>
@@ -101,13 +111,7 @@
     <t>city33</t>
   </si>
   <si>
-    <t>consumptionExpenditures</t>
-  </si>
-  <si>
     <t>city18</t>
-  </si>
-  <si>
-    <t>towner_ ConsumptionExpenditures</t>
   </si>
   <si>
     <t>city8</t>
@@ -131,12 +135,6 @@
     <t>city39</t>
   </si>
   <si>
-    <t>rural_ConsumptionExpenditures</t>
-  </si>
-  <si>
-    <t>towner_disposableIcome</t>
-  </si>
-  <si>
     <t>city2</t>
   </si>
   <si>
@@ -154,14 +152,11 @@
   <si>
     <t>city30</t>
   </si>
-  <si>
-    <t>rural_disposableIcome</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -170,14 +165,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,13 +642,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +660,126 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,170 +1100,186 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2015</v>
+        <v>40948</v>
       </c>
       <c r="C2">
-        <v>2016</v>
+        <v>44632</v>
       </c>
       <c r="D2">
-        <v>2017</v>
+        <v>48692</v>
       </c>
       <c r="E2">
-        <v>2018</v>
+        <v>52936</v>
       </c>
       <c r="F2">
-        <v>2019</v>
+        <v>57544</v>
       </c>
       <c r="G2">
-        <v>2020</v>
+        <v>62520</v>
       </c>
       <c r="H2">
-        <v>2021</v>
+        <v>64876</v>
       </c>
       <c r="I2">
-        <v>2022</v>
+        <v>70842</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40948</v>
+        <v>35140</v>
       </c>
       <c r="C3">
-        <v>44632</v>
+        <v>38500</v>
       </c>
       <c r="D3">
-        <v>48692</v>
+        <v>41940</v>
       </c>
       <c r="E3">
-        <v>52936</v>
+        <v>45812</v>
       </c>
       <c r="F3">
-        <v>57544</v>
+        <v>49628</v>
       </c>
       <c r="G3">
-        <v>62520</v>
+        <v>54040</v>
       </c>
       <c r="H3">
-        <v>64876</v>
+        <v>56244</v>
       </c>
       <c r="I3">
-        <v>70842</v>
+        <v>61698</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35140</v>
+        <v>13280</v>
       </c>
       <c r="C4">
-        <v>38500</v>
+        <v>14548</v>
       </c>
       <c r="D4">
-        <v>41940</v>
+        <v>16076</v>
       </c>
       <c r="E4">
-        <v>45812</v>
+        <v>17716</v>
       </c>
       <c r="F4">
-        <v>49628</v>
+        <v>19396</v>
       </c>
       <c r="G4">
-        <v>54040</v>
+        <v>21052</v>
       </c>
       <c r="H4">
-        <v>56244</v>
+        <v>22288</v>
       </c>
       <c r="I4">
-        <v>61698</v>
+        <v>24624</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13280</v>
+        <v>15264</v>
       </c>
       <c r="C5">
-        <v>14548</v>
+        <v>16844</v>
       </c>
       <c r="D5">
-        <v>16076</v>
+        <v>18400</v>
       </c>
       <c r="E5">
-        <v>17716</v>
+        <v>19884</v>
       </c>
       <c r="F5">
-        <v>19396</v>
+        <v>21348</v>
       </c>
       <c r="G5">
-        <v>21052</v>
+        <v>23176</v>
       </c>
       <c r="H5">
-        <v>22288</v>
+        <v>24600</v>
       </c>
       <c r="I5">
-        <v>24624</v>
+        <v>26724</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15264</v>
+        <v>34316</v>
       </c>
       <c r="C6">
-        <v>16844</v>
+        <v>37136</v>
       </c>
       <c r="D6">
-        <v>18400</v>
+        <v>40116</v>
       </c>
       <c r="E6">
-        <v>19884</v>
+        <v>43504</v>
       </c>
       <c r="F6">
-        <v>21348</v>
+        <v>47380</v>
       </c>
       <c r="G6">
-        <v>23176</v>
+        <v>51612</v>
       </c>
       <c r="H6">
-        <v>24600</v>
+        <v>54664</v>
       </c>
       <c r="I6">
-        <v>26724</v>
+        <v>60048</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>34316</v>
+        <v>31508</v>
       </c>
       <c r="C7">
-        <v>37136</v>
+        <v>34248</v>
       </c>
       <c r="D7">
-        <v>40116</v>
+        <v>37192</v>
       </c>
       <c r="E7">
-        <v>43504</v>
+        <v>40700</v>
       </c>
       <c r="F7">
-        <v>47380</v>
+        <v>44484</v>
       </c>
       <c r="G7">
-        <v>51612</v>
+        <v>48672</v>
       </c>
       <c r="H7">
-        <v>54664</v>
+        <v>51800</v>
       </c>
       <c r="I7">
-        <v>60048</v>
+        <v>57492</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31508</v>
+        <v>35332</v>
       </c>
       <c r="C8">
-        <v>34248</v>
+        <v>38388</v>
       </c>
       <c r="D8">
-        <v>37192</v>
+        <v>41504</v>
       </c>
       <c r="E8">
-        <v>40700</v>
+        <v>45304</v>
       </c>
       <c r="F8">
-        <v>44484</v>
+        <v>49388</v>
       </c>
       <c r="G8">
-        <v>48672</v>
+        <v>53836</v>
       </c>
       <c r="H8">
-        <v>51800</v>
+        <v>56600</v>
       </c>
       <c r="I8">
-        <v>57492</v>
+        <v>62508</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>35332</v>
+        <v>35328</v>
       </c>
       <c r="C9">
-        <v>38388</v>
+        <v>38252</v>
       </c>
       <c r="D9">
-        <v>41504</v>
+        <v>41564</v>
       </c>
       <c r="E9">
-        <v>45304</v>
+        <v>45192</v>
       </c>
       <c r="F9">
-        <v>49388</v>
+        <v>49216</v>
       </c>
       <c r="G9">
-        <v>53836</v>
+        <v>53568</v>
       </c>
       <c r="H9">
-        <v>56600</v>
+        <v>55828</v>
       </c>
       <c r="I9">
-        <v>62508</v>
+        <v>60846</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>35328</v>
+        <v>22424</v>
       </c>
       <c r="C10">
-        <v>38252</v>
+        <v>24400</v>
       </c>
       <c r="D10">
-        <v>41564</v>
+        <v>26756</v>
       </c>
       <c r="E10">
-        <v>45192</v>
+        <v>29328</v>
       </c>
       <c r="F10">
-        <v>49216</v>
+        <v>32244</v>
       </c>
       <c r="G10">
-        <v>53568</v>
+        <v>35448</v>
       </c>
       <c r="H10">
-        <v>55828</v>
+        <v>37744</v>
       </c>
       <c r="I10">
-        <v>60846</v>
+        <v>42036</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>22424</v>
+        <v>16620</v>
       </c>
       <c r="C11">
-        <v>24400</v>
+        <v>18140</v>
       </c>
       <c r="D11">
-        <v>26756</v>
+        <v>19972</v>
       </c>
       <c r="E11">
-        <v>29328</v>
+        <v>21864</v>
       </c>
       <c r="F11">
-        <v>32244</v>
+        <v>23672</v>
       </c>
       <c r="G11">
-        <v>35448</v>
+        <v>25804</v>
       </c>
       <c r="H11">
-        <v>37744</v>
+        <v>27544</v>
       </c>
       <c r="I11">
-        <v>42036</v>
+        <v>30204</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1432,28 +1432,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>16620</v>
+        <v>39224</v>
       </c>
       <c r="C12">
-        <v>18140</v>
+        <v>42712</v>
       </c>
       <c r="D12">
-        <v>19972</v>
+        <v>46664</v>
       </c>
       <c r="E12">
-        <v>21864</v>
+        <v>50780</v>
       </c>
       <c r="F12">
-        <v>23672</v>
+        <v>55272</v>
       </c>
       <c r="G12">
-        <v>25804</v>
+        <v>60068</v>
       </c>
       <c r="H12">
-        <v>27544</v>
+        <v>63284</v>
       </c>
       <c r="I12">
-        <v>30204</v>
+        <v>68904</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1461,365 +1461,333 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>39224</v>
+        <v>31592</v>
       </c>
       <c r="C13">
-        <v>42712</v>
+        <v>34372</v>
       </c>
       <c r="D13">
-        <v>46664</v>
+        <v>37152</v>
       </c>
       <c r="E13">
-        <v>50780</v>
+        <v>40624</v>
       </c>
       <c r="F13">
-        <v>55272</v>
+        <v>44324</v>
       </c>
       <c r="G13">
-        <v>60068</v>
+        <v>48152</v>
       </c>
       <c r="H13">
-        <v>63284</v>
+        <v>50580</v>
       </c>
       <c r="I13">
-        <v>68904</v>
+        <v>55878</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>31592</v>
+        <v>22432</v>
       </c>
       <c r="C14">
-        <v>34372</v>
+        <v>24460</v>
       </c>
       <c r="D14">
-        <v>37152</v>
+        <v>26744</v>
       </c>
       <c r="E14">
-        <v>40624</v>
+        <v>29372</v>
       </c>
       <c r="F14">
-        <v>44324</v>
+        <v>32264</v>
       </c>
       <c r="G14">
-        <v>48152</v>
+        <v>35408</v>
       </c>
       <c r="H14">
-        <v>50580</v>
+        <v>37932</v>
       </c>
       <c r="I14">
-        <v>55878</v>
+        <v>42648</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>22432</v>
+        <v>33232</v>
       </c>
       <c r="C15">
-        <v>24460</v>
+        <v>36156</v>
       </c>
       <c r="D15">
-        <v>26744</v>
+        <v>40152</v>
       </c>
       <c r="E15">
-        <v>29372</v>
+        <v>44040</v>
       </c>
       <c r="F15">
-        <v>32264</v>
+        <v>48104</v>
       </c>
       <c r="G15">
-        <v>35408</v>
+        <v>52492</v>
       </c>
       <c r="H15">
-        <v>37932</v>
+        <v>55936</v>
       </c>
       <c r="I15">
-        <v>42648</v>
+        <v>61388</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>33232</v>
+        <v>17264</v>
       </c>
       <c r="C16">
-        <v>36156</v>
+        <v>18996</v>
       </c>
       <c r="D16">
-        <v>40152</v>
+        <v>20712</v>
       </c>
       <c r="E16">
-        <v>44040</v>
+        <v>22520</v>
       </c>
       <c r="F16">
-        <v>48104</v>
+        <v>24428</v>
       </c>
       <c r="G16">
-        <v>52492</v>
+        <v>26612</v>
       </c>
       <c r="H16">
-        <v>55936</v>
+        <v>28220</v>
       </c>
       <c r="I16">
-        <v>61388</v>
+        <v>30968</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17264</v>
+        <v>20584</v>
       </c>
       <c r="C17">
-        <v>18996</v>
+        <v>22364</v>
       </c>
       <c r="D17">
-        <v>20712</v>
+        <v>24424</v>
       </c>
       <c r="E17">
-        <v>22520</v>
+        <v>26848</v>
       </c>
       <c r="F17">
-        <v>24428</v>
+        <v>29544</v>
       </c>
       <c r="G17">
-        <v>26612</v>
+        <v>32320</v>
       </c>
       <c r="H17">
-        <v>28220</v>
+        <v>33664</v>
       </c>
       <c r="I17">
-        <v>30968</v>
+        <v>37068</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>20584</v>
+        <v>15300</v>
       </c>
       <c r="C18">
-        <v>22364</v>
+        <v>16628</v>
       </c>
       <c r="D18">
-        <v>24424</v>
+        <v>17932</v>
       </c>
       <c r="E18">
-        <v>26848</v>
+        <v>19628</v>
       </c>
       <c r="F18">
-        <v>29544</v>
+        <v>21424</v>
       </c>
       <c r="G18">
-        <v>32320</v>
+        <v>23320</v>
       </c>
       <c r="H18">
-        <v>33664</v>
+        <v>24984</v>
       </c>
       <c r="I18">
-        <v>37068</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15300</v>
+        <v>17332</v>
       </c>
       <c r="C19">
-        <v>16628</v>
+        <v>18988</v>
       </c>
       <c r="D19">
-        <v>17932</v>
+        <v>20576</v>
       </c>
       <c r="E19">
-        <v>19628</v>
+        <v>22360</v>
       </c>
       <c r="F19">
-        <v>21424</v>
+        <v>24068</v>
       </c>
       <c r="G19">
-        <v>23320</v>
+        <v>26120</v>
       </c>
       <c r="H19">
-        <v>24984</v>
+        <v>27496</v>
       </c>
       <c r="I19">
-        <v>27644</v>
+        <v>30392</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>17332</v>
+        <v>39236</v>
       </c>
       <c r="C20">
-        <v>18988</v>
+        <v>42640</v>
       </c>
       <c r="D20">
-        <v>20576</v>
+        <v>46116</v>
       </c>
       <c r="E20">
-        <v>22360</v>
+        <v>49832</v>
       </c>
       <c r="F20">
-        <v>24068</v>
+        <v>54348</v>
       </c>
       <c r="G20">
-        <v>26120</v>
+        <v>59260</v>
       </c>
       <c r="H20">
-        <v>27496</v>
+        <v>61876</v>
       </c>
       <c r="I20">
-        <v>30392</v>
+        <v>67708</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>39236</v>
+        <v>38072</v>
       </c>
       <c r="C21">
-        <v>42640</v>
+        <v>41372</v>
       </c>
       <c r="D21">
-        <v>46116</v>
+        <v>44640</v>
       </c>
       <c r="E21">
-        <v>49832</v>
+        <v>48232</v>
       </c>
       <c r="F21">
-        <v>54348</v>
+        <v>52400</v>
       </c>
       <c r="G21">
-        <v>59260</v>
+        <v>56980</v>
       </c>
       <c r="H21">
-        <v>61876</v>
+        <v>59952</v>
       </c>
       <c r="I21">
-        <v>67708</v>
+        <v>65436</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>38072</v>
+        <v>30948</v>
       </c>
       <c r="C22">
-        <v>41372</v>
+        <v>33788</v>
       </c>
       <c r="D22">
-        <v>44640</v>
+        <v>36912</v>
       </c>
       <c r="E22">
-        <v>48232</v>
+        <v>40436</v>
       </c>
       <c r="F22">
-        <v>52400</v>
+        <v>43972</v>
       </c>
       <c r="G22">
-        <v>56980</v>
+        <v>47988</v>
       </c>
       <c r="H22">
-        <v>59952</v>
+        <v>50640</v>
       </c>
       <c r="I22">
-        <v>65436</v>
+        <v>55496</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>30948</v>
+        <v>33476</v>
       </c>
       <c r="C23">
-        <v>33788</v>
+        <v>36456</v>
       </c>
       <c r="D23">
-        <v>36912</v>
+        <v>39600</v>
       </c>
       <c r="E23">
-        <v>40436</v>
+        <v>43184</v>
       </c>
       <c r="F23">
-        <v>43972</v>
+        <v>46920</v>
       </c>
       <c r="G23">
-        <v>47988</v>
+        <v>51488</v>
       </c>
       <c r="H23">
-        <v>50640</v>
+        <v>54024</v>
       </c>
       <c r="I23">
-        <v>55496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>33476</v>
-      </c>
-      <c r="C24">
-        <v>36456</v>
-      </c>
-      <c r="D24">
-        <v>39600</v>
-      </c>
-      <c r="E24">
-        <v>43184</v>
-      </c>
-      <c r="F24">
-        <v>46920</v>
-      </c>
-      <c r="G24">
-        <v>51488</v>
-      </c>
-      <c r="H24">
-        <v>54024</v>
-      </c>
-      <c r="I24">
         <v>59588</v>
       </c>
     </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1828,170 +1796,186 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2015</v>
+        <v>28852</v>
       </c>
       <c r="C2">
-        <v>2016</v>
+        <v>32356</v>
       </c>
       <c r="D2">
-        <v>2017</v>
+        <v>36480</v>
       </c>
       <c r="E2">
-        <v>2018</v>
+        <v>38320</v>
       </c>
       <c r="F2">
-        <v>2019</v>
+        <v>40532</v>
       </c>
       <c r="G2">
-        <v>2020</v>
+        <v>43112</v>
       </c>
       <c r="H2">
-        <v>2021</v>
+        <v>40580</v>
       </c>
       <c r="I2">
-        <v>2022</v>
+        <v>46280</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28852</v>
+        <v>24848</v>
       </c>
       <c r="C3">
-        <v>32356</v>
+        <v>27712</v>
       </c>
       <c r="D3">
-        <v>36480</v>
+        <v>30560</v>
       </c>
       <c r="E3">
-        <v>38320</v>
+        <v>32648</v>
       </c>
       <c r="F3">
-        <v>40532</v>
+        <v>34052</v>
       </c>
       <c r="G3">
-        <v>43112</v>
+        <v>37160</v>
       </c>
       <c r="H3">
-        <v>40580</v>
+        <v>36936</v>
       </c>
       <c r="I3">
-        <v>46280</v>
+        <v>40540</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>24848</v>
+        <v>9976</v>
       </c>
       <c r="C4">
-        <v>27712</v>
+        <v>10764</v>
       </c>
       <c r="D4">
-        <v>30560</v>
+        <v>12236</v>
       </c>
       <c r="E4">
-        <v>32648</v>
+        <v>13580</v>
       </c>
       <c r="F4">
-        <v>34052</v>
+        <v>14592</v>
       </c>
       <c r="G4">
-        <v>37160</v>
+        <v>15604</v>
       </c>
       <c r="H4">
-        <v>36936</v>
+        <v>16000</v>
       </c>
       <c r="I4">
-        <v>40540</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9976</v>
+        <v>11236</v>
       </c>
       <c r="C5">
-        <v>10764</v>
+        <v>12428</v>
       </c>
       <c r="D5">
-        <v>12236</v>
+        <v>13480</v>
       </c>
       <c r="E5">
-        <v>13580</v>
+        <v>14492</v>
       </c>
       <c r="F5">
-        <v>14592</v>
+        <v>15440</v>
       </c>
       <c r="G5">
-        <v>15604</v>
+        <v>16516</v>
       </c>
       <c r="H5">
-        <v>16000</v>
+        <v>17012</v>
       </c>
       <c r="I5">
-        <v>18025</v>
+        <v>18275</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11236</v>
+        <v>20304</v>
       </c>
       <c r="C6">
-        <v>12428</v>
+        <v>22336</v>
       </c>
       <c r="D6">
-        <v>13480</v>
+        <v>24136</v>
       </c>
       <c r="E6">
-        <v>14492</v>
+        <v>25616</v>
       </c>
       <c r="F6">
-        <v>15440</v>
+        <v>27736</v>
       </c>
       <c r="G6">
-        <v>16516</v>
+        <v>30544</v>
       </c>
       <c r="H6">
-        <v>17012</v>
+        <v>31756</v>
       </c>
       <c r="I6">
-        <v>18275</v>
+        <v>37155</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1999,28 +1983,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20304</v>
+        <v>20356</v>
       </c>
       <c r="C7">
-        <v>22336</v>
+        <v>22020</v>
       </c>
       <c r="D7">
-        <v>24136</v>
+        <v>23216</v>
       </c>
       <c r="E7">
-        <v>25616</v>
+        <v>24420</v>
       </c>
       <c r="F7">
-        <v>27736</v>
+        <v>26964</v>
       </c>
       <c r="G7">
-        <v>30544</v>
+        <v>29656</v>
       </c>
       <c r="H7">
-        <v>31756</v>
+        <v>30412</v>
       </c>
       <c r="I7">
-        <v>37155</v>
+        <v>35870</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2028,28 +2012,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20356</v>
+        <v>22000</v>
       </c>
       <c r="C8">
-        <v>22020</v>
+        <v>23784</v>
       </c>
       <c r="D8">
-        <v>23216</v>
+        <v>24540</v>
       </c>
       <c r="E8">
-        <v>24420</v>
+        <v>26456</v>
       </c>
       <c r="F8">
-        <v>26964</v>
+        <v>28688</v>
       </c>
       <c r="G8">
-        <v>29656</v>
+        <v>31108</v>
       </c>
       <c r="H8">
-        <v>30412</v>
+        <v>31612</v>
       </c>
       <c r="I8">
-        <v>35870</v>
+        <v>37445</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2057,28 +2041,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22000</v>
+        <v>23784</v>
       </c>
       <c r="C9">
-        <v>23784</v>
+        <v>25772</v>
       </c>
       <c r="D9">
-        <v>24540</v>
+        <v>26908</v>
       </c>
       <c r="E9">
-        <v>26456</v>
+        <v>28256</v>
       </c>
       <c r="F9">
-        <v>28688</v>
+        <v>29988</v>
       </c>
       <c r="G9">
-        <v>31108</v>
+        <v>32344</v>
       </c>
       <c r="H9">
-        <v>31612</v>
+        <v>32456</v>
       </c>
       <c r="I9">
-        <v>37445</v>
+        <v>37560</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2086,484 +2070,452 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23784</v>
+        <v>16920</v>
       </c>
       <c r="C10">
-        <v>25772</v>
+        <v>18396</v>
       </c>
       <c r="D10">
-        <v>26908</v>
+        <v>19932</v>
       </c>
       <c r="E10">
-        <v>28256</v>
+        <v>21568</v>
       </c>
       <c r="F10">
-        <v>29988</v>
+        <v>23508</v>
       </c>
       <c r="G10">
-        <v>32344</v>
+        <v>25716</v>
       </c>
       <c r="H10">
-        <v>32456</v>
+        <v>25940</v>
       </c>
       <c r="I10">
-        <v>37560</v>
+        <v>30385</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16920</v>
+        <v>12220</v>
       </c>
       <c r="C11">
-        <v>18396</v>
+        <v>13380</v>
       </c>
       <c r="D11">
-        <v>19932</v>
+        <v>14800</v>
       </c>
       <c r="E11">
-        <v>21568</v>
+        <v>16052</v>
       </c>
       <c r="F11">
-        <v>23508</v>
+        <v>17204</v>
       </c>
       <c r="G11">
-        <v>25716</v>
+        <v>18724</v>
       </c>
       <c r="H11">
-        <v>25940</v>
+        <v>18800</v>
       </c>
       <c r="I11">
-        <v>30385</v>
+        <v>21330</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12220</v>
+        <v>30572</v>
       </c>
       <c r="C12">
-        <v>13380</v>
+        <v>32884</v>
       </c>
       <c r="D12">
-        <v>14800</v>
+        <v>35384</v>
       </c>
       <c r="E12">
-        <v>16052</v>
+        <v>37492</v>
       </c>
       <c r="F12">
-        <v>17204</v>
+        <v>39464</v>
       </c>
       <c r="G12">
-        <v>18724</v>
+        <v>42304</v>
       </c>
       <c r="H12">
-        <v>18800</v>
+        <v>41400</v>
       </c>
       <c r="I12">
-        <v>21330</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>20604</v>
+      </c>
+      <c r="C13">
+        <v>22228</v>
+      </c>
+      <c r="D13">
+        <v>23980</v>
+      </c>
+      <c r="E13">
+        <v>25492</v>
+      </c>
+      <c r="F13">
+        <v>26860</v>
+      </c>
+      <c r="G13">
+        <v>28768</v>
+      </c>
+      <c r="H13">
+        <v>28288</v>
+      </c>
+      <c r="I13">
+        <v>34070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>30572</v>
-      </c>
-      <c r="C13">
-        <v>32884</v>
-      </c>
-      <c r="D13">
-        <v>35384</v>
-      </c>
-      <c r="E13">
-        <v>37492</v>
-      </c>
-      <c r="F13">
-        <v>39464</v>
-      </c>
-      <c r="G13">
-        <v>42304</v>
-      </c>
-      <c r="H13">
-        <v>41400</v>
-      </c>
-      <c r="I13">
-        <v>44245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B14">
-        <v>20604</v>
+        <v>20948</v>
       </c>
       <c r="C14">
-        <v>22228</v>
+        <v>22668</v>
       </c>
       <c r="D14">
-        <v>23980</v>
+        <v>24960</v>
       </c>
       <c r="E14">
-        <v>25492</v>
+        <v>26660</v>
       </c>
       <c r="F14">
-        <v>26860</v>
+        <v>28624</v>
       </c>
       <c r="G14">
-        <v>28768</v>
+        <v>30908</v>
       </c>
       <c r="H14">
-        <v>28288</v>
+        <v>30944</v>
       </c>
       <c r="I14">
-        <v>34070</v>
+        <v>36465</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20948</v>
+        <v>13872</v>
       </c>
       <c r="C15">
-        <v>22668</v>
+        <v>14692</v>
       </c>
       <c r="D15">
-        <v>24960</v>
+        <v>15864</v>
       </c>
       <c r="E15">
-        <v>26660</v>
+        <v>16788</v>
       </c>
       <c r="F15">
-        <v>28624</v>
+        <v>18732</v>
       </c>
       <c r="G15">
-        <v>30908</v>
+        <v>20632</v>
       </c>
       <c r="H15">
-        <v>30944</v>
+        <v>21024</v>
       </c>
       <c r="I15">
-        <v>36465</v>
+        <v>25040</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13872</v>
+        <v>25125</v>
       </c>
       <c r="C16">
-        <v>14692</v>
+        <v>27198</v>
       </c>
       <c r="D16">
-        <v>15864</v>
+        <v>30477</v>
       </c>
       <c r="E16">
-        <v>16788</v>
+        <v>32979</v>
       </c>
       <c r="F16">
-        <v>18732</v>
+        <v>35079</v>
       </c>
       <c r="G16">
-        <v>20632</v>
+        <v>38211</v>
       </c>
       <c r="H16">
-        <v>21024</v>
+        <v>36357</v>
       </c>
       <c r="I16">
-        <v>25040</v>
+        <v>42333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25125</v>
+        <v>14562</v>
       </c>
       <c r="C17">
-        <v>27198</v>
+        <v>16179</v>
       </c>
       <c r="D17">
-        <v>30477</v>
+        <v>17532</v>
       </c>
       <c r="E17">
-        <v>32979</v>
+        <v>18789</v>
       </c>
       <c r="F17">
-        <v>35079</v>
+        <v>19185</v>
       </c>
       <c r="G17">
-        <v>38211</v>
+        <v>20943</v>
       </c>
       <c r="H17">
-        <v>36357</v>
+        <v>21255</v>
       </c>
       <c r="I17">
-        <v>42333</v>
+        <v>22491</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14562</v>
+        <v>14256</v>
       </c>
       <c r="C18">
-        <v>16179</v>
+        <v>15609</v>
       </c>
       <c r="D18">
-        <v>17532</v>
+        <v>17280</v>
       </c>
       <c r="E18">
-        <v>18789</v>
+        <v>19302</v>
       </c>
       <c r="F18">
-        <v>19185</v>
+        <v>19749</v>
       </c>
       <c r="G18">
-        <v>20943</v>
+        <v>21645</v>
       </c>
       <c r="H18">
-        <v>21255</v>
+        <v>21897</v>
       </c>
       <c r="I18">
-        <v>22491</v>
+        <v>24192</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14256</v>
+        <v>11436</v>
       </c>
       <c r="C19">
-        <v>15609</v>
+        <v>12273</v>
       </c>
       <c r="D19">
-        <v>17280</v>
+        <v>13302</v>
       </c>
       <c r="E19">
-        <v>19302</v>
+        <v>14511</v>
       </c>
       <c r="F19">
-        <v>19749</v>
+        <v>15300</v>
       </c>
       <c r="G19">
-        <v>21645</v>
+        <v>16311</v>
       </c>
       <c r="H19">
-        <v>21897</v>
+        <v>16557</v>
       </c>
       <c r="I19">
-        <v>24192</v>
+        <v>18858</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11436</v>
+        <v>11490</v>
       </c>
       <c r="C20">
-        <v>12273</v>
+        <v>12552</v>
       </c>
       <c r="D20">
-        <v>13302</v>
+        <v>13926</v>
       </c>
       <c r="E20">
-        <v>14511</v>
+        <v>14865</v>
       </c>
       <c r="F20">
-        <v>15300</v>
+        <v>15504</v>
       </c>
       <c r="G20">
-        <v>16311</v>
+        <v>17019</v>
       </c>
       <c r="H20">
-        <v>16557</v>
+        <v>16776</v>
       </c>
       <c r="I20">
-        <v>18858</v>
+        <v>19092</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11490</v>
+        <v>28491</v>
       </c>
       <c r="C21">
-        <v>12552</v>
+        <v>30180</v>
       </c>
       <c r="D21">
-        <v>13926</v>
+        <v>31905</v>
       </c>
       <c r="E21">
-        <v>14865</v>
+        <v>34146</v>
       </c>
       <c r="F21">
-        <v>15504</v>
+        <v>37368</v>
       </c>
       <c r="G21">
-        <v>17019</v>
+        <v>40014</v>
       </c>
       <c r="H21">
-        <v>16776</v>
+        <v>38235</v>
       </c>
       <c r="I21">
-        <v>19092</v>
+        <v>446007</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28491</v>
+        <v>24324</v>
       </c>
       <c r="C22">
-        <v>30180</v>
+        <v>26055</v>
       </c>
       <c r="D22">
-        <v>31905</v>
+        <v>27891</v>
       </c>
       <c r="E22">
-        <v>34146</v>
+        <v>29316</v>
       </c>
       <c r="F22">
-        <v>37368</v>
+        <v>32199</v>
       </c>
       <c r="G22">
-        <v>40014</v>
+        <v>33942</v>
       </c>
       <c r="H22">
-        <v>38235</v>
+        <v>34455</v>
       </c>
       <c r="I22">
-        <v>446007</v>
+        <v>40476</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24324</v>
+        <v>21639</v>
       </c>
       <c r="C23">
-        <v>26055</v>
+        <v>23820</v>
       </c>
       <c r="D23">
-        <v>27891</v>
+        <v>25143</v>
       </c>
       <c r="E23">
-        <v>29316</v>
+        <v>27129</v>
       </c>
       <c r="F23">
-        <v>32199</v>
+        <v>29421</v>
       </c>
       <c r="G23">
-        <v>33942</v>
+        <v>31767</v>
       </c>
       <c r="H23">
-        <v>34455</v>
+        <v>30969</v>
       </c>
       <c r="I23">
-        <v>40476</v>
+        <v>36225</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21639</v>
+        <v>22866</v>
       </c>
       <c r="C24">
-        <v>23820</v>
+        <v>24798</v>
       </c>
       <c r="D24">
-        <v>25143</v>
+        <v>26232</v>
       </c>
       <c r="E24">
-        <v>27129</v>
+        <v>28626</v>
       </c>
       <c r="F24">
-        <v>29421</v>
+        <v>31212</v>
       </c>
       <c r="G24">
-        <v>31767</v>
+        <v>34107</v>
       </c>
       <c r="H24">
-        <v>30969</v>
+        <v>34281</v>
       </c>
       <c r="I24">
-        <v>36225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>22866</v>
-      </c>
-      <c r="C25">
-        <v>24798</v>
-      </c>
-      <c r="D25">
-        <v>26232</v>
-      </c>
-      <c r="E25">
-        <v>28626</v>
-      </c>
-      <c r="F25">
-        <v>31212</v>
-      </c>
-      <c r="G25">
-        <v>34107</v>
-      </c>
-      <c r="H25">
-        <v>34281</v>
-      </c>
-      <c r="I25">
         <v>39900</v>
       </c>
     </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2572,1127 +2524,1107 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:M24"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2011</v>
+        <v>22804</v>
       </c>
       <c r="C2">
-        <v>2012</v>
+        <v>24080</v>
       </c>
       <c r="D2">
-        <v>2013</v>
+        <v>26728</v>
       </c>
       <c r="E2">
-        <v>2014</v>
+        <v>28812</v>
       </c>
       <c r="F2">
-        <v>2015</v>
+        <v>28852</v>
       </c>
       <c r="G2">
-        <v>2016</v>
+        <v>32356</v>
       </c>
       <c r="H2">
-        <v>2017</v>
+        <v>36480</v>
       </c>
       <c r="I2">
-        <v>2018</v>
+        <v>38320</v>
       </c>
       <c r="J2">
-        <v>2019</v>
+        <v>40532</v>
       </c>
       <c r="K2">
-        <v>2020</v>
+        <v>43112</v>
       </c>
       <c r="L2">
-        <v>2021</v>
+        <v>40580</v>
       </c>
       <c r="M2">
-        <v>2022</v>
+        <v>46284</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22804</v>
+        <v>21992</v>
       </c>
       <c r="C3">
-        <v>24080</v>
+        <v>23780</v>
       </c>
       <c r="D3">
-        <v>26728</v>
+        <v>26164</v>
       </c>
       <c r="E3">
-        <v>28812</v>
+        <v>28308</v>
       </c>
       <c r="F3">
-        <v>28852</v>
+        <v>26040</v>
       </c>
       <c r="G3">
-        <v>32356</v>
+        <v>28396</v>
       </c>
       <c r="H3">
-        <v>36480</v>
+        <v>31300</v>
       </c>
       <c r="I3">
-        <v>38320</v>
+        <v>33448</v>
       </c>
       <c r="J3">
-        <v>40532</v>
+        <v>34800</v>
       </c>
       <c r="K3">
-        <v>43112</v>
+        <v>37968</v>
       </c>
       <c r="L3">
-        <v>40580</v>
+        <v>37664</v>
       </c>
       <c r="M3">
-        <v>46284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+        <v>41324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21992</v>
+        <v>8368</v>
       </c>
       <c r="C4">
-        <v>23780</v>
+        <v>9816</v>
       </c>
       <c r="D4">
-        <v>26164</v>
+        <v>11200</v>
       </c>
       <c r="E4">
-        <v>28308</v>
+        <v>12232</v>
       </c>
       <c r="F4">
-        <v>26040</v>
+        <v>12464</v>
       </c>
       <c r="G4">
-        <v>28396</v>
+        <v>13428</v>
       </c>
       <c r="H4">
-        <v>31300</v>
+        <v>15120</v>
       </c>
       <c r="I4">
-        <v>33448</v>
+        <v>16456</v>
       </c>
       <c r="J4">
-        <v>34800</v>
+        <v>17340</v>
       </c>
       <c r="K4">
-        <v>37968</v>
+        <v>18228</v>
       </c>
       <c r="L4">
-        <v>37664</v>
+        <v>18320</v>
       </c>
       <c r="M4">
-        <v>41324</v>
-      </c>
+        <v>20164</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8368</v>
+        <v>10180</v>
       </c>
       <c r="C5">
-        <v>9816</v>
+        <v>13160</v>
       </c>
       <c r="D5">
-        <v>11200</v>
+        <v>14300</v>
       </c>
       <c r="E5">
-        <v>12232</v>
+        <v>15484</v>
       </c>
       <c r="F5">
-        <v>12464</v>
+        <v>13928</v>
       </c>
       <c r="G5">
-        <v>13428</v>
+        <v>15292</v>
       </c>
       <c r="H5">
-        <v>15120</v>
+        <v>16264</v>
       </c>
       <c r="I5">
-        <v>16456</v>
+        <v>17512</v>
       </c>
       <c r="J5">
-        <v>17340</v>
+        <v>18020</v>
       </c>
       <c r="K5">
-        <v>18228</v>
+        <v>19256</v>
       </c>
       <c r="L5">
-        <v>18320</v>
+        <v>19440</v>
       </c>
       <c r="M5">
-        <v>20164</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
+        <v>20636</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>23196</v>
+      </c>
+      <c r="F6">
+        <v>24872</v>
+      </c>
+      <c r="G6">
+        <v>26812</v>
+      </c>
+      <c r="H6">
+        <v>27728</v>
+      </c>
+      <c r="I6">
+        <v>28960</v>
+      </c>
+      <c r="J6">
+        <v>31828</v>
+      </c>
+      <c r="K6">
+        <v>34916</v>
+      </c>
+      <c r="L6">
+        <v>35488</v>
+      </c>
+      <c r="M6">
+        <v>41532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>25388</v>
+      </c>
+      <c r="F7">
+        <v>27804</v>
+      </c>
+      <c r="G7">
+        <v>30128</v>
+      </c>
+      <c r="H7">
+        <v>30760</v>
+      </c>
+      <c r="I7">
+        <v>32216</v>
+      </c>
+      <c r="J7">
+        <v>33824</v>
+      </c>
+      <c r="K7">
+        <v>36332</v>
+      </c>
+      <c r="L7">
+        <v>36476</v>
+      </c>
+      <c r="M7">
+        <v>42044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>24220</v>
+      </c>
+      <c r="F8">
+        <v>26228</v>
+      </c>
+      <c r="G8">
+        <v>28156</v>
+      </c>
+      <c r="H8">
+        <v>28856</v>
+      </c>
+      <c r="I8">
+        <v>30876</v>
+      </c>
+      <c r="J8">
+        <v>33316</v>
+      </c>
+      <c r="K8">
+        <v>35924</v>
+      </c>
+      <c r="L8">
+        <v>36392</v>
+      </c>
+      <c r="M8">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>20004</v>
+      </c>
+      <c r="F9">
+        <v>21864</v>
+      </c>
+      <c r="G9">
+        <v>23556</v>
+      </c>
+      <c r="H9">
+        <v>25296</v>
+      </c>
+      <c r="I9">
+        <v>27016</v>
+      </c>
+      <c r="J9">
+        <v>29268</v>
+      </c>
+      <c r="K9">
+        <v>31876</v>
+      </c>
+      <c r="L9">
+        <v>31756</v>
+      </c>
+      <c r="M9">
+        <v>36676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>10180</v>
-      </c>
-      <c r="C6">
-        <v>13160</v>
-      </c>
-      <c r="D6">
-        <v>14300</v>
-      </c>
-      <c r="E6">
-        <v>15484</v>
-      </c>
-      <c r="F6">
-        <v>13928</v>
-      </c>
-      <c r="G6">
-        <v>15292</v>
-      </c>
-      <c r="H6">
-        <v>16264</v>
-      </c>
-      <c r="I6">
-        <v>17512</v>
-      </c>
-      <c r="J6">
-        <v>18020</v>
-      </c>
-      <c r="K6">
-        <v>19256</v>
-      </c>
-      <c r="L6">
-        <v>19440</v>
-      </c>
-      <c r="M6">
-        <v>20636</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>23196</v>
-      </c>
-      <c r="F7">
-        <v>24872</v>
-      </c>
-      <c r="G7">
-        <v>26812</v>
-      </c>
-      <c r="H7">
-        <v>27728</v>
-      </c>
-      <c r="I7">
-        <v>28960</v>
-      </c>
-      <c r="J7">
-        <v>31828</v>
-      </c>
-      <c r="K7">
-        <v>34916</v>
-      </c>
-      <c r="L7">
-        <v>35488</v>
-      </c>
-      <c r="M7">
-        <v>41532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>25388</v>
-      </c>
-      <c r="F8">
-        <v>27804</v>
-      </c>
-      <c r="G8">
-        <v>30128</v>
-      </c>
-      <c r="H8">
-        <v>30760</v>
-      </c>
-      <c r="I8">
-        <v>32216</v>
-      </c>
-      <c r="J8">
-        <v>33824</v>
-      </c>
-      <c r="K8">
-        <v>36332</v>
-      </c>
-      <c r="L8">
-        <v>36476</v>
-      </c>
-      <c r="M8">
-        <v>42044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>24220</v>
-      </c>
-      <c r="F9">
-        <v>26228</v>
-      </c>
-      <c r="G9">
-        <v>28156</v>
-      </c>
-      <c r="H9">
-        <v>28856</v>
-      </c>
-      <c r="I9">
-        <v>30876</v>
-      </c>
-      <c r="J9">
-        <v>33316</v>
-      </c>
-      <c r="K9">
-        <v>35924</v>
-      </c>
-      <c r="L9">
-        <v>36392</v>
-      </c>
-      <c r="M9">
-        <v>42764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="E10">
+        <v>21104</v>
+      </c>
+      <c r="F10">
+        <v>23032</v>
+      </c>
+      <c r="G10">
+        <v>25544</v>
+      </c>
+      <c r="H10">
+        <v>28312</v>
+      </c>
+      <c r="I10">
+        <v>29872</v>
+      </c>
+      <c r="J10">
+        <v>32364</v>
+      </c>
+      <c r="K10">
+        <v>35432</v>
+      </c>
+      <c r="L10">
+        <v>36384</v>
+      </c>
+      <c r="M10">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>11636</v>
+      </c>
+      <c r="C11">
+        <v>13312</v>
+      </c>
+      <c r="D11">
+        <v>14860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>20004</v>
-      </c>
-      <c r="F10">
-        <v>21864</v>
-      </c>
-      <c r="G10">
-        <v>23556</v>
-      </c>
-      <c r="H10">
-        <v>25296</v>
-      </c>
-      <c r="I10">
-        <v>27016</v>
-      </c>
-      <c r="J10">
-        <v>29268</v>
-      </c>
-      <c r="K10">
-        <v>31876</v>
-      </c>
-      <c r="L10">
-        <v>31756</v>
-      </c>
-      <c r="M10">
-        <v>36676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>21104</v>
-      </c>
-      <c r="F11">
-        <v>23032</v>
-      </c>
-      <c r="G11">
-        <v>25544</v>
-      </c>
-      <c r="H11">
-        <v>28312</v>
-      </c>
-      <c r="I11">
-        <v>29872</v>
-      </c>
-      <c r="J11">
+      <c r="B12">
+        <v>12908</v>
+      </c>
+      <c r="C12">
+        <v>14392</v>
+      </c>
+      <c r="D12">
+        <v>16288</v>
+      </c>
+      <c r="E12">
+        <v>17640</v>
+      </c>
+      <c r="F12">
+        <v>15220</v>
+      </c>
+      <c r="G12">
+        <v>16588</v>
+      </c>
+      <c r="H12">
+        <v>18140</v>
+      </c>
+      <c r="I12">
+        <v>19628</v>
+      </c>
+      <c r="J12">
+        <v>20804</v>
+      </c>
+      <c r="K12">
+        <v>22468</v>
+      </c>
+      <c r="L12">
+        <v>22160</v>
+      </c>
+      <c r="M12">
+        <v>25072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>25008</v>
+      </c>
+      <c r="C13">
+        <v>28204</v>
+      </c>
+      <c r="D13">
+        <v>30488</v>
+      </c>
+      <c r="E13">
+        <v>33152</v>
+      </c>
+      <c r="F13">
+        <v>33380</v>
+      </c>
+      <c r="G13">
+        <v>35748</v>
+      </c>
+      <c r="H13">
+        <v>38392</v>
+      </c>
+      <c r="I13">
+        <v>40632</v>
+      </c>
+      <c r="J13">
+        <v>42180</v>
+      </c>
+      <c r="K13">
+        <v>45044</v>
+      </c>
+      <c r="L13">
+        <v>44280</v>
+      </c>
+      <c r="M13">
+        <v>47160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14">
+        <v>23504</v>
+      </c>
+      <c r="F14">
+        <v>25624</v>
+      </c>
+      <c r="G14">
+        <v>27700</v>
+      </c>
+      <c r="H14">
+        <v>30308</v>
+      </c>
+      <c r="I14">
         <v>32364</v>
       </c>
-      <c r="K11">
-        <v>35432</v>
-      </c>
-      <c r="L11">
-        <v>36384</v>
-      </c>
-      <c r="M11">
-        <v>42304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>11636</v>
-      </c>
-      <c r="C12">
-        <v>13312</v>
-      </c>
-      <c r="D12">
-        <v>14860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12908</v>
-      </c>
-      <c r="C13">
-        <v>14392</v>
-      </c>
-      <c r="D13">
-        <v>16288</v>
-      </c>
-      <c r="E13">
-        <v>17640</v>
-      </c>
-      <c r="F13">
-        <v>15220</v>
-      </c>
-      <c r="G13">
-        <v>16588</v>
-      </c>
-      <c r="H13">
-        <v>18140</v>
-      </c>
-      <c r="I13">
-        <v>19628</v>
-      </c>
-      <c r="J13">
-        <v>20804</v>
-      </c>
-      <c r="K13">
-        <v>22468</v>
-      </c>
-      <c r="L13">
-        <v>22160</v>
-      </c>
-      <c r="M13">
-        <v>25072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>25008</v>
-      </c>
-      <c r="C14">
-        <v>28204</v>
-      </c>
-      <c r="D14">
-        <v>30488</v>
-      </c>
-      <c r="E14">
-        <v>33152</v>
-      </c>
-      <c r="F14">
-        <v>33380</v>
-      </c>
-      <c r="G14">
-        <v>35748</v>
-      </c>
-      <c r="H14">
-        <v>38392</v>
-      </c>
-      <c r="I14">
-        <v>40632</v>
-      </c>
       <c r="J14">
-        <v>42180</v>
+        <v>34500</v>
       </c>
       <c r="K14">
-        <v>45044</v>
+        <v>37164</v>
       </c>
       <c r="L14">
-        <v>44280</v>
+        <v>36824</v>
       </c>
       <c r="M14">
-        <v>47160</v>
+        <v>43028</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15">
-        <v>23504</v>
+        <v>16992</v>
       </c>
       <c r="F15">
-        <v>25624</v>
+        <v>18352</v>
       </c>
       <c r="G15">
-        <v>27700</v>
+        <v>19388</v>
       </c>
       <c r="H15">
-        <v>30308</v>
+        <v>20872</v>
       </c>
       <c r="I15">
-        <v>32364</v>
+        <v>21928</v>
       </c>
       <c r="J15">
-        <v>34500</v>
+        <v>24268</v>
       </c>
       <c r="K15">
-        <v>37164</v>
+        <v>26532</v>
       </c>
       <c r="L15">
-        <v>36824</v>
+        <v>26800</v>
       </c>
       <c r="M15">
-        <v>43028</v>
+        <v>31428</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="B16">
+        <v>20368</v>
+      </c>
+      <c r="C16">
+        <v>21160</v>
+      </c>
+      <c r="D16">
+        <v>24080</v>
+      </c>
       <c r="E16">
-        <v>16992</v>
+        <v>26128</v>
       </c>
       <c r="F16">
-        <v>18352</v>
+        <v>26636</v>
       </c>
       <c r="G16">
-        <v>19388</v>
+        <v>28740</v>
       </c>
       <c r="H16">
-        <v>20872</v>
+        <v>32148</v>
       </c>
       <c r="I16">
-        <v>21928</v>
+        <v>34732</v>
       </c>
       <c r="J16">
-        <v>24268</v>
+        <v>36816</v>
       </c>
       <c r="K16">
-        <v>26532</v>
+        <v>40028</v>
       </c>
       <c r="L16">
-        <v>26800</v>
+        <v>37776</v>
       </c>
       <c r="M16">
-        <v>31428</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20368</v>
+        <v>13218</v>
       </c>
       <c r="C17">
-        <v>21160</v>
+        <v>15744</v>
       </c>
       <c r="D17">
-        <v>24080</v>
+        <v>17985</v>
       </c>
       <c r="E17">
-        <v>26128</v>
+        <v>19548</v>
       </c>
       <c r="F17">
-        <v>26636</v>
+        <v>18036</v>
       </c>
       <c r="G17">
-        <v>28740</v>
+        <v>19350</v>
       </c>
       <c r="H17">
-        <v>32148</v>
+        <v>20721</v>
       </c>
       <c r="I17">
-        <v>34732</v>
+        <v>21777</v>
       </c>
       <c r="J17">
-        <v>36816</v>
+        <v>21996</v>
       </c>
       <c r="K17">
-        <v>40028</v>
+        <v>23853</v>
       </c>
       <c r="L17">
-        <v>37776</v>
+        <v>24048</v>
       </c>
       <c r="M17">
-        <v>43956</v>
+        <v>25266</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13218</v>
+        <v>15558</v>
       </c>
       <c r="C18">
-        <v>15744</v>
+        <v>17076</v>
       </c>
       <c r="D18">
-        <v>17985</v>
+        <v>18447</v>
       </c>
       <c r="E18">
-        <v>19548</v>
+        <v>19905</v>
       </c>
       <c r="F18">
-        <v>18036</v>
+        <v>16761</v>
       </c>
       <c r="G18">
-        <v>19350</v>
+        <v>18330</v>
       </c>
       <c r="H18">
-        <v>20721</v>
+        <v>20457</v>
       </c>
       <c r="I18">
-        <v>21777</v>
+        <v>22905</v>
       </c>
       <c r="J18">
-        <v>21996</v>
+        <v>23235</v>
       </c>
       <c r="K18">
-        <v>23853</v>
+        <v>25677</v>
       </c>
       <c r="L18">
-        <v>24048</v>
+        <v>25476</v>
       </c>
       <c r="M18">
-        <v>25266</v>
+        <v>27912</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15558</v>
+        <v>11823</v>
       </c>
       <c r="C19">
-        <v>17076</v>
+        <v>14055</v>
       </c>
       <c r="D19">
-        <v>18447</v>
+        <v>15615</v>
       </c>
       <c r="E19">
-        <v>19905</v>
+        <v>17115</v>
       </c>
       <c r="F19">
-        <v>16761</v>
+        <v>15921</v>
       </c>
       <c r="G19">
-        <v>18330</v>
+        <v>17091</v>
       </c>
       <c r="H19">
-        <v>20457</v>
+        <v>18414</v>
       </c>
       <c r="I19">
-        <v>22905</v>
+        <v>20013</v>
       </c>
       <c r="J19">
-        <v>23235</v>
+        <v>20214</v>
       </c>
       <c r="K19">
-        <v>25677</v>
+        <v>21057</v>
       </c>
       <c r="L19">
-        <v>25476</v>
+        <v>21006</v>
       </c>
       <c r="M19">
-        <v>27912</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11823</v>
+        <v>12162</v>
       </c>
       <c r="C20">
-        <v>14055</v>
+        <v>14019</v>
       </c>
       <c r="D20">
-        <v>15615</v>
+        <v>15726</v>
       </c>
       <c r="E20">
-        <v>17115</v>
+        <v>17160</v>
       </c>
       <c r="F20">
-        <v>15921</v>
+        <v>15213</v>
       </c>
       <c r="G20">
-        <v>17091</v>
+        <v>16359</v>
       </c>
       <c r="H20">
-        <v>18414</v>
+        <v>17880</v>
       </c>
       <c r="I20">
-        <v>20013</v>
+        <v>18945</v>
       </c>
       <c r="J20">
-        <v>20214</v>
+        <v>19983</v>
       </c>
       <c r="K20">
-        <v>21057</v>
+        <v>21684</v>
       </c>
       <c r="L20">
-        <v>21006</v>
+        <v>20988</v>
       </c>
       <c r="M20">
-        <v>23268</v>
+        <v>23028</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>12162</v>
-      </c>
-      <c r="C21">
-        <v>14019</v>
-      </c>
-      <c r="D21">
-        <v>15726</v>
-      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21">
-        <v>17160</v>
+        <v>30656</v>
       </c>
       <c r="F21">
-        <v>15213</v>
+        <v>32164</v>
       </c>
       <c r="G21">
-        <v>16359</v>
+        <v>33816</v>
       </c>
       <c r="H21">
-        <v>17880</v>
+        <v>35684</v>
       </c>
       <c r="I21">
-        <v>18945</v>
+        <v>38176</v>
       </c>
       <c r="J21">
-        <v>19983</v>
+        <v>41612</v>
       </c>
       <c r="K21">
-        <v>21684</v>
+        <v>44076</v>
       </c>
       <c r="L21">
-        <v>20988</v>
+        <v>41916</v>
       </c>
       <c r="M21">
-        <v>23028</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22">
-        <v>30656</v>
+        <v>25012</v>
       </c>
       <c r="F22">
-        <v>32164</v>
+        <v>27892</v>
       </c>
       <c r="G22">
-        <v>33816</v>
+        <v>29644</v>
       </c>
       <c r="H22">
-        <v>35684</v>
+        <v>31584</v>
       </c>
       <c r="I22">
-        <v>38176</v>
+        <v>33196</v>
       </c>
       <c r="J22">
-        <v>41612</v>
+        <v>36712</v>
       </c>
       <c r="K22">
-        <v>44076</v>
+        <v>38272</v>
       </c>
       <c r="L22">
-        <v>41916</v>
+        <v>38700</v>
       </c>
       <c r="M22">
-        <v>48628</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23">
-        <v>25012</v>
+        <v>24028</v>
       </c>
       <c r="F23">
-        <v>27892</v>
+        <v>26456</v>
       </c>
       <c r="G23">
-        <v>29644</v>
+        <v>28892</v>
       </c>
       <c r="H23">
-        <v>31584</v>
+        <v>30020</v>
       </c>
       <c r="I23">
-        <v>33196</v>
+        <v>32512</v>
       </c>
       <c r="J23">
-        <v>36712</v>
+        <v>35100</v>
       </c>
       <c r="K23">
-        <v>38272</v>
+        <v>37616</v>
       </c>
       <c r="L23">
-        <v>38700</v>
+        <v>36128</v>
       </c>
       <c r="M23">
-        <v>45360</v>
+        <v>42096</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>18156</v>
+      </c>
+      <c r="C24">
+        <v>20763</v>
+      </c>
+      <c r="D24">
+        <v>23493</v>
+      </c>
       <c r="E24">
-        <v>24028</v>
+        <v>25647</v>
       </c>
       <c r="F24">
-        <v>26456</v>
+        <v>25854</v>
       </c>
       <c r="G24">
-        <v>28892</v>
+        <v>27792</v>
       </c>
       <c r="H24">
-        <v>30020</v>
+        <v>29772</v>
       </c>
       <c r="I24">
-        <v>32512</v>
+        <v>31383</v>
       </c>
       <c r="J24">
-        <v>35100</v>
+        <v>33537</v>
       </c>
       <c r="K24">
-        <v>37616</v>
+        <v>35931</v>
       </c>
       <c r="L24">
-        <v>36128</v>
+        <v>35853</v>
       </c>
       <c r="M24">
-        <v>42096</v>
+        <v>42486</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>15972</v>
+      </c>
+      <c r="C25">
+        <v>18045</v>
+      </c>
+      <c r="D25">
+        <v>20031</v>
+      </c>
+      <c r="E25">
+        <v>21666</v>
+      </c>
+      <c r="F25">
+        <v>22980</v>
+      </c>
+      <c r="G25">
+        <v>26316</v>
+      </c>
+      <c r="H25">
+        <v>28536</v>
+      </c>
+      <c r="I25">
+        <v>30726</v>
+      </c>
+      <c r="J25">
+        <v>32976</v>
+      </c>
+      <c r="K25">
+        <v>26637</v>
+      </c>
+      <c r="L25">
+        <v>34389</v>
+      </c>
+      <c r="M25">
+        <v>36864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>17529</v>
+      </c>
+      <c r="C26">
+        <v>19296</v>
+      </c>
+      <c r="D26">
+        <v>20391</v>
+      </c>
+      <c r="E26">
+        <v>22059</v>
+      </c>
+      <c r="F26">
+        <v>24015</v>
+      </c>
+      <c r="G26">
+        <v>26049</v>
+      </c>
+      <c r="H26">
+        <v>28284</v>
+      </c>
+      <c r="I26">
+        <v>30567</v>
+      </c>
+      <c r="J26">
+        <v>32889</v>
+      </c>
+      <c r="K26">
+        <v>29499</v>
+      </c>
+      <c r="L26">
+        <v>35934</v>
+      </c>
+      <c r="M26">
+        <v>38571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>18156</v>
-      </c>
-      <c r="C25">
-        <v>20763</v>
-      </c>
-      <c r="D25">
-        <v>23493</v>
-      </c>
-      <c r="E25">
-        <v>25647</v>
-      </c>
-      <c r="F25">
-        <v>25854</v>
-      </c>
-      <c r="G25">
-        <v>27792</v>
-      </c>
-      <c r="H25">
-        <v>29772</v>
-      </c>
-      <c r="I25">
-        <v>31383</v>
-      </c>
-      <c r="J25">
-        <v>33537</v>
-      </c>
-      <c r="K25">
-        <v>35931</v>
-      </c>
-      <c r="L25">
-        <v>35853</v>
-      </c>
-      <c r="M25">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+      <c r="B27">
+        <v>13722</v>
+      </c>
+      <c r="C27">
+        <v>15993</v>
+      </c>
+      <c r="D27">
+        <v>16917</v>
+      </c>
+      <c r="E27">
+        <v>18423</v>
+      </c>
+      <c r="F27">
+        <v>19902</v>
+      </c>
+      <c r="G27">
+        <v>22119</v>
+      </c>
+      <c r="H27">
+        <v>23697</v>
+      </c>
+      <c r="I27">
+        <v>25260</v>
+      </c>
+      <c r="J27">
+        <v>26973</v>
+      </c>
+      <c r="K27">
+        <v>24537</v>
+      </c>
+      <c r="L27">
+        <v>29469</v>
+      </c>
+      <c r="M27">
+        <v>31674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>15972</v>
-      </c>
-      <c r="C26">
-        <v>18045</v>
-      </c>
-      <c r="D26">
-        <v>20031</v>
-      </c>
-      <c r="E26">
-        <v>21666</v>
-      </c>
-      <c r="F26">
-        <v>22980</v>
-      </c>
-      <c r="G26">
-        <v>26316</v>
-      </c>
-      <c r="H26">
-        <v>28536</v>
-      </c>
-      <c r="I26">
-        <v>30726</v>
-      </c>
-      <c r="J26">
-        <v>32976</v>
-      </c>
-      <c r="K26">
-        <v>26637</v>
-      </c>
-      <c r="L26">
-        <v>34389</v>
-      </c>
-      <c r="M26">
-        <v>36864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+      <c r="B28">
+        <v>11409</v>
+      </c>
+      <c r="C28">
+        <v>13461</v>
+      </c>
+      <c r="D28">
+        <v>14916</v>
+      </c>
+      <c r="E28">
+        <v>16200</v>
+      </c>
+      <c r="F28">
+        <v>17586</v>
+      </c>
+      <c r="G28">
+        <v>14742</v>
+      </c>
+      <c r="H28">
+        <v>15930</v>
+      </c>
+      <c r="I28">
+        <v>17247</v>
+      </c>
+      <c r="J28">
+        <v>18546</v>
+      </c>
+      <c r="K28">
+        <v>15822</v>
+      </c>
+      <c r="L28">
+        <v>20370</v>
+      </c>
+      <c r="M28">
+        <v>22029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B29">
+        <v>14742</v>
+      </c>
+      <c r="C29">
         <v>17529</v>
       </c>
-      <c r="C27">
-        <v>19296</v>
-      </c>
-      <c r="D27">
-        <v>20391</v>
-      </c>
-      <c r="E27">
-        <v>22059</v>
-      </c>
-      <c r="F27">
-        <v>24015</v>
-      </c>
-      <c r="G27">
-        <v>26049</v>
-      </c>
-      <c r="H27">
-        <v>28284</v>
-      </c>
-      <c r="I27">
-        <v>30567</v>
-      </c>
-      <c r="J27">
-        <v>32889</v>
-      </c>
-      <c r="K27">
-        <v>29499</v>
-      </c>
-      <c r="L27">
-        <v>35934</v>
-      </c>
-      <c r="M27">
-        <v>38571</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>13722</v>
-      </c>
-      <c r="C28">
-        <v>15993</v>
-      </c>
-      <c r="D28">
-        <v>16917</v>
-      </c>
-      <c r="E28">
-        <v>18423</v>
-      </c>
-      <c r="F28">
-        <v>19902</v>
-      </c>
-      <c r="G28">
-        <v>22119</v>
-      </c>
-      <c r="H28">
-        <v>23697</v>
-      </c>
-      <c r="I28">
-        <v>25260</v>
-      </c>
-      <c r="J28">
-        <v>26973</v>
-      </c>
-      <c r="K28">
-        <v>24537</v>
-      </c>
-      <c r="L28">
-        <v>29469</v>
-      </c>
-      <c r="M28">
-        <v>31674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>11409</v>
-      </c>
-      <c r="C29">
-        <v>13461</v>
-      </c>
       <c r="D29">
-        <v>14916</v>
+        <v>18000</v>
       </c>
       <c r="E29">
-        <v>16200</v>
+        <v>19566</v>
       </c>
       <c r="F29">
-        <v>17586</v>
+        <v>21924</v>
       </c>
       <c r="G29">
-        <v>14742</v>
+        <v>23139</v>
       </c>
       <c r="H29">
-        <v>15930</v>
+        <v>24876</v>
       </c>
       <c r="I29">
-        <v>17247</v>
+        <v>26871</v>
       </c>
       <c r="J29">
-        <v>18546</v>
+        <v>28899</v>
       </c>
       <c r="K29">
-        <v>15822</v>
+        <v>25359</v>
       </c>
       <c r="L29">
-        <v>20370</v>
+        <v>31284</v>
       </c>
       <c r="M29">
-        <v>22029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>14742</v>
-      </c>
-      <c r="C30">
-        <v>17529</v>
-      </c>
-      <c r="D30">
-        <v>18000</v>
-      </c>
-      <c r="E30">
-        <v>19566</v>
-      </c>
-      <c r="F30">
-        <v>21924</v>
-      </c>
-      <c r="G30">
-        <v>23139</v>
-      </c>
-      <c r="H30">
-        <v>24876</v>
-      </c>
-      <c r="I30">
-        <v>26871</v>
-      </c>
-      <c r="J30">
-        <v>28899</v>
-      </c>
-      <c r="K30">
-        <v>25359</v>
-      </c>
-      <c r="L30">
-        <v>31284</v>
-      </c>
-      <c r="M30">
         <v>33525</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -3701,967 +3633,947 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2011</v>
+        <v>11184</v>
       </c>
       <c r="C2">
-        <v>2012</v>
+        <v>11456</v>
       </c>
       <c r="D2">
-        <v>2013</v>
+        <v>12692</v>
       </c>
       <c r="E2">
-        <v>2014</v>
+        <v>13472</v>
       </c>
       <c r="F2">
-        <v>2015</v>
+        <v>15048</v>
       </c>
       <c r="G2">
-        <v>2016</v>
+        <v>16736</v>
       </c>
       <c r="H2">
-        <v>2017</v>
+        <v>18260</v>
       </c>
       <c r="I2">
-        <v>2018</v>
+        <v>19904</v>
       </c>
       <c r="J2">
-        <v>2019</v>
+        <v>21820</v>
       </c>
       <c r="K2">
-        <v>2020</v>
+        <v>22256</v>
       </c>
       <c r="L2">
-        <v>2021</v>
-      </c>
-      <c r="M2">
-        <v>2022</v>
+        <v>25032</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11184</v>
+        <v>5880</v>
       </c>
       <c r="C3">
-        <v>11456</v>
+        <v>6204</v>
       </c>
       <c r="D3">
-        <v>12692</v>
+        <v>6944</v>
       </c>
       <c r="E3">
-        <v>13472</v>
+        <v>8192</v>
       </c>
       <c r="F3">
-        <v>15048</v>
+        <v>8940</v>
       </c>
       <c r="G3">
-        <v>16736</v>
+        <v>10208</v>
       </c>
       <c r="H3">
-        <v>18260</v>
+        <v>11484</v>
       </c>
       <c r="I3">
-        <v>19904</v>
+        <v>12436</v>
       </c>
       <c r="J3">
-        <v>21820</v>
+        <v>13436</v>
       </c>
       <c r="K3">
-        <v>22256</v>
+        <v>13988</v>
       </c>
       <c r="L3">
-        <v>25032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+        <v>16020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5880</v>
+        <v>5584</v>
       </c>
       <c r="C4">
-        <v>6204</v>
+        <v>6624</v>
       </c>
       <c r="D4">
-        <v>6944</v>
+        <v>7624</v>
       </c>
       <c r="E4">
-        <v>8192</v>
+        <v>9860</v>
       </c>
       <c r="F4">
-        <v>8940</v>
+        <v>10644</v>
       </c>
       <c r="G4">
-        <v>10208</v>
+        <v>11696</v>
       </c>
       <c r="H4">
-        <v>11484</v>
+        <v>12480</v>
       </c>
       <c r="I4">
-        <v>12436</v>
+        <v>13484</v>
       </c>
       <c r="J4">
-        <v>13436</v>
+        <v>14448</v>
       </c>
       <c r="K4">
-        <v>13988</v>
+        <v>15044</v>
       </c>
       <c r="L4">
-        <v>16020</v>
-      </c>
+        <v>16452</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>12440</v>
+      </c>
+      <c r="E5">
+        <v>14836</v>
+      </c>
+      <c r="F5">
+        <v>16112</v>
+      </c>
+      <c r="G5">
+        <v>17608</v>
+      </c>
+      <c r="H5">
+        <v>18664</v>
+      </c>
+      <c r="I5">
+        <v>20716</v>
+      </c>
+      <c r="J5">
+        <v>22612</v>
+      </c>
+      <c r="K5">
+        <v>22984</v>
+      </c>
+      <c r="L5">
+        <v>27132</v>
+      </c>
+      <c r="M5">
+        <v>29356</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>14608</v>
+      </c>
+      <c r="E6">
+        <v>16216</v>
+      </c>
+      <c r="F6">
+        <v>17612</v>
+      </c>
+      <c r="G6">
+        <v>19468</v>
+      </c>
+      <c r="H6">
+        <v>20472</v>
+      </c>
+      <c r="I6">
+        <v>22004</v>
+      </c>
+      <c r="J6">
+        <v>23888</v>
+      </c>
+      <c r="K6">
+        <v>23912</v>
+      </c>
+      <c r="L6">
+        <v>27828</v>
+      </c>
+      <c r="M6">
+        <v>29724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>13868</v>
+      </c>
+      <c r="E7">
+        <v>15632</v>
+      </c>
+      <c r="F7">
+        <v>17120</v>
+      </c>
+      <c r="G7">
+        <v>17784</v>
+      </c>
+      <c r="H7">
+        <v>19216</v>
+      </c>
+      <c r="I7">
+        <v>20888</v>
+      </c>
+      <c r="J7">
+        <v>22656</v>
+      </c>
+      <c r="K7">
+        <v>23132</v>
+      </c>
+      <c r="L7">
+        <v>27468</v>
+      </c>
+      <c r="M7">
+        <v>29772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10080</v>
+      </c>
+      <c r="E8">
+        <v>11480</v>
+      </c>
+      <c r="F8">
+        <v>12676</v>
+      </c>
+      <c r="G8">
+        <v>13936</v>
+      </c>
+      <c r="H8">
+        <v>15220</v>
+      </c>
+      <c r="I8">
+        <v>16620</v>
+      </c>
+      <c r="J8">
+        <v>18140</v>
+      </c>
+      <c r="K8">
+        <v>18332</v>
+      </c>
+      <c r="L8">
+        <v>21612</v>
+      </c>
+      <c r="M8">
+        <v>23576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>5584</v>
-      </c>
-      <c r="C5">
-        <v>6624</v>
-      </c>
-      <c r="D5">
-        <v>7624</v>
-      </c>
-      <c r="E5">
-        <v>9860</v>
-      </c>
-      <c r="F5">
-        <v>10644</v>
-      </c>
-      <c r="G5">
-        <v>11696</v>
-      </c>
-      <c r="H5">
-        <v>12480</v>
-      </c>
-      <c r="I5">
-        <v>13484</v>
-      </c>
-      <c r="J5">
-        <v>14448</v>
-      </c>
-      <c r="K5">
-        <v>15044</v>
-      </c>
-      <c r="L5">
-        <v>16452</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>12440</v>
-      </c>
-      <c r="E6">
-        <v>14836</v>
-      </c>
-      <c r="F6">
-        <v>16112</v>
-      </c>
-      <c r="G6">
-        <v>17608</v>
-      </c>
-      <c r="H6">
-        <v>18664</v>
-      </c>
-      <c r="I6">
-        <v>20716</v>
-      </c>
-      <c r="J6">
-        <v>22612</v>
-      </c>
-      <c r="K6">
-        <v>22984</v>
-      </c>
-      <c r="L6">
-        <v>27132</v>
-      </c>
-      <c r="M6">
-        <v>29356</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>14608</v>
-      </c>
-      <c r="E7">
-        <v>16216</v>
-      </c>
-      <c r="F7">
-        <v>17612</v>
-      </c>
-      <c r="G7">
-        <v>19468</v>
-      </c>
-      <c r="H7">
-        <v>20472</v>
-      </c>
-      <c r="I7">
-        <v>22004</v>
-      </c>
-      <c r="J7">
-        <v>23888</v>
-      </c>
-      <c r="K7">
-        <v>23912</v>
-      </c>
-      <c r="L7">
-        <v>27828</v>
-      </c>
-      <c r="M7">
-        <v>29724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>13868</v>
-      </c>
-      <c r="E8">
-        <v>15632</v>
-      </c>
-      <c r="F8">
-        <v>17120</v>
-      </c>
-      <c r="G8">
-        <v>17784</v>
-      </c>
-      <c r="H8">
-        <v>19216</v>
-      </c>
-      <c r="I8">
-        <v>20888</v>
-      </c>
-      <c r="J8">
-        <v>22656</v>
-      </c>
-      <c r="K8">
-        <v>23132</v>
-      </c>
-      <c r="L8">
-        <v>27468</v>
-      </c>
-      <c r="M8">
-        <v>29772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="D9">
+        <v>13440</v>
+      </c>
+      <c r="E9">
+        <v>16160</v>
+      </c>
+      <c r="F9">
+        <v>17520</v>
+      </c>
+      <c r="G9">
+        <v>18864</v>
+      </c>
+      <c r="H9">
+        <v>20240</v>
+      </c>
+      <c r="I9">
+        <v>21708</v>
+      </c>
+      <c r="J9">
+        <v>23824</v>
+      </c>
+      <c r="K9">
+        <v>24480</v>
+      </c>
+      <c r="L9">
+        <v>28508</v>
+      </c>
+      <c r="M9">
+        <v>30568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>5944</v>
+      </c>
+      <c r="F10">
+        <v>6528</v>
+      </c>
+      <c r="G10">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>10080</v>
-      </c>
-      <c r="E9">
-        <v>11480</v>
-      </c>
-      <c r="F9">
-        <v>12676</v>
-      </c>
-      <c r="G9">
-        <v>13936</v>
-      </c>
-      <c r="H9">
-        <v>15220</v>
-      </c>
-      <c r="I9">
-        <v>16620</v>
-      </c>
-      <c r="J9">
-        <v>18140</v>
-      </c>
-      <c r="K9">
-        <v>18332</v>
-      </c>
-      <c r="L9">
-        <v>21612</v>
-      </c>
-      <c r="M9">
-        <v>23576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>13440</v>
-      </c>
-      <c r="E10">
-        <v>16160</v>
-      </c>
-      <c r="F10">
-        <v>17520</v>
-      </c>
-      <c r="G10">
-        <v>18864</v>
-      </c>
-      <c r="H10">
-        <v>20240</v>
-      </c>
-      <c r="I10">
-        <v>21708</v>
-      </c>
-      <c r="J10">
-        <v>23824</v>
-      </c>
-      <c r="K10">
-        <v>24480</v>
-      </c>
-      <c r="L10">
-        <v>28508</v>
-      </c>
-      <c r="M10">
-        <v>30568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>27</v>
+      <c r="B11">
+        <v>4928</v>
+      </c>
+      <c r="C11">
+        <v>6192</v>
+      </c>
+      <c r="D11">
+        <v>6628</v>
       </c>
       <c r="E11">
-        <v>5944</v>
+        <v>7324</v>
       </c>
       <c r="F11">
-        <v>6528</v>
+        <v>8824</v>
       </c>
       <c r="G11">
-        <v>6920</v>
+        <v>9652</v>
+      </c>
+      <c r="H11">
+        <v>10824</v>
+      </c>
+      <c r="I11">
+        <v>11808</v>
+      </c>
+      <c r="J11">
+        <v>12712</v>
+      </c>
+      <c r="K11">
+        <v>13860</v>
+      </c>
+      <c r="L11">
+        <v>14268</v>
+      </c>
+      <c r="M11">
+        <v>16304</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4928</v>
+        <v>8984</v>
       </c>
       <c r="C12">
-        <v>6192</v>
+        <v>9900</v>
       </c>
       <c r="D12">
-        <v>6628</v>
+        <v>10960</v>
       </c>
       <c r="E12">
-        <v>7324</v>
+        <v>11684</v>
       </c>
       <c r="F12">
-        <v>8824</v>
+        <v>12864</v>
       </c>
       <c r="G12">
-        <v>9652</v>
+        <v>14084</v>
       </c>
       <c r="H12">
-        <v>10824</v>
+        <v>17592</v>
       </c>
       <c r="I12">
-        <v>11808</v>
+        <v>18928</v>
       </c>
       <c r="J12">
-        <v>12712</v>
+        <v>20628</v>
       </c>
       <c r="K12">
-        <v>13860</v>
+        <v>22520</v>
       </c>
       <c r="L12">
-        <v>14268</v>
+        <v>22988</v>
       </c>
       <c r="M12">
-        <v>16304</v>
+        <v>26092</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>8984</v>
-      </c>
-      <c r="C13">
-        <v>9900</v>
-      </c>
-      <c r="D13">
-        <v>10960</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13">
-        <v>11684</v>
+        <v>11804</v>
       </c>
       <c r="F13">
-        <v>12864</v>
+        <v>13520</v>
       </c>
       <c r="G13">
-        <v>14084</v>
+        <v>14628</v>
       </c>
       <c r="H13">
-        <v>17592</v>
+        <v>16264</v>
       </c>
       <c r="I13">
-        <v>18928</v>
+        <v>17144</v>
       </c>
       <c r="J13">
-        <v>20628</v>
+        <v>18548</v>
       </c>
       <c r="K13">
-        <v>22520</v>
+        <v>19928</v>
       </c>
       <c r="L13">
-        <v>22988</v>
+        <v>20108</v>
       </c>
       <c r="M13">
-        <v>26092</v>
+        <v>23812</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14">
-        <v>11804</v>
+        <v>9072</v>
       </c>
       <c r="F14">
-        <v>13520</v>
+        <v>9980</v>
       </c>
       <c r="G14">
-        <v>14628</v>
+        <v>10628</v>
       </c>
       <c r="H14">
-        <v>16264</v>
+        <v>11448</v>
       </c>
       <c r="I14">
-        <v>17144</v>
+        <v>12180</v>
       </c>
       <c r="J14">
-        <v>18548</v>
+        <v>13624</v>
       </c>
       <c r="K14">
-        <v>19928</v>
+        <v>15004</v>
       </c>
       <c r="L14">
-        <v>20108</v>
+        <v>15112</v>
       </c>
       <c r="M14">
-        <v>23812</v>
+        <v>17868</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="B15">
+        <v>8070</v>
+      </c>
+      <c r="C15">
+        <v>8895</v>
+      </c>
+      <c r="D15">
+        <v>10098</v>
+      </c>
       <c r="E15">
-        <v>9072</v>
+        <v>11415</v>
       </c>
       <c r="F15">
-        <v>9980</v>
+        <v>14301</v>
       </c>
       <c r="G15">
-        <v>10628</v>
+        <v>16044</v>
       </c>
       <c r="H15">
-        <v>11448</v>
+        <v>18372</v>
       </c>
       <c r="I15">
-        <v>12180</v>
+        <v>20037</v>
       </c>
       <c r="J15">
-        <v>13624</v>
+        <v>20472</v>
       </c>
       <c r="K15">
-        <v>15004</v>
+        <v>22572</v>
       </c>
       <c r="L15">
-        <v>15112</v>
+        <v>22497</v>
       </c>
       <c r="M15">
-        <v>17868</v>
+        <v>26928</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8070</v>
+        <v>5958</v>
       </c>
       <c r="C16">
-        <v>8895</v>
+        <v>6585</v>
       </c>
       <c r="D16">
-        <v>10098</v>
+        <v>7296</v>
       </c>
       <c r="E16">
-        <v>11415</v>
+        <v>7944</v>
       </c>
       <c r="F16">
-        <v>14301</v>
+        <v>9525</v>
       </c>
       <c r="G16">
-        <v>16044</v>
+        <v>10797</v>
       </c>
       <c r="H16">
-        <v>18372</v>
+        <v>12018</v>
       </c>
       <c r="I16">
-        <v>20037</v>
+        <v>13344</v>
       </c>
       <c r="J16">
-        <v>20472</v>
+        <v>14052</v>
       </c>
       <c r="K16">
-        <v>22572</v>
+        <v>15372</v>
       </c>
       <c r="L16">
-        <v>22497</v>
+        <v>15741</v>
       </c>
       <c r="M16">
-        <v>26928</v>
+        <v>16914</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5958</v>
+        <v>6411</v>
       </c>
       <c r="C17">
-        <v>6585</v>
+        <v>7608</v>
       </c>
       <c r="D17">
-        <v>7296</v>
+        <v>8355</v>
       </c>
       <c r="E17">
-        <v>7944</v>
+        <v>9396</v>
       </c>
       <c r="F17">
-        <v>9525</v>
+        <v>9189</v>
       </c>
       <c r="G17">
-        <v>10797</v>
+        <v>10323</v>
       </c>
       <c r="H17">
-        <v>12018</v>
+        <v>11583</v>
       </c>
       <c r="I17">
-        <v>13344</v>
+        <v>12654</v>
       </c>
       <c r="J17">
-        <v>14052</v>
+        <v>13041</v>
       </c>
       <c r="K17">
-        <v>15372</v>
+        <v>13641</v>
       </c>
       <c r="L17">
-        <v>15741</v>
+        <v>14727</v>
       </c>
       <c r="M17">
-        <v>16914</v>
+        <v>16422</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6411</v>
+        <v>4578</v>
       </c>
       <c r="C18">
-        <v>7608</v>
+        <v>5631</v>
       </c>
       <c r="D18">
-        <v>8355</v>
+        <v>6909</v>
       </c>
       <c r="E18">
-        <v>9396</v>
+        <v>7905</v>
       </c>
       <c r="F18">
-        <v>9189</v>
+        <v>8517</v>
       </c>
       <c r="G18">
-        <v>10323</v>
+        <v>9180</v>
       </c>
       <c r="H18">
-        <v>11583</v>
+        <v>9921</v>
       </c>
       <c r="I18">
-        <v>12654</v>
+        <v>10731</v>
       </c>
       <c r="J18">
-        <v>13041</v>
+        <v>11730</v>
       </c>
       <c r="K18">
-        <v>13641</v>
+        <v>12729</v>
       </c>
       <c r="L18">
-        <v>14727</v>
+        <v>13071</v>
       </c>
       <c r="M18">
-        <v>16422</v>
+        <v>15180</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4578</v>
+        <v>5079</v>
       </c>
       <c r="C19">
-        <v>5631</v>
+        <v>6159</v>
       </c>
       <c r="D19">
-        <v>6909</v>
+        <v>6429</v>
       </c>
       <c r="E19">
-        <v>7905</v>
+        <v>7500</v>
       </c>
       <c r="F19">
-        <v>8517</v>
+        <v>7995</v>
       </c>
       <c r="G19">
-        <v>9180</v>
+        <v>8934</v>
       </c>
       <c r="H19">
-        <v>9921</v>
+        <v>9975</v>
       </c>
       <c r="I19">
-        <v>10731</v>
+        <v>10923</v>
       </c>
       <c r="J19">
-        <v>11730</v>
+        <v>11358</v>
       </c>
       <c r="K19">
-        <v>12729</v>
+        <v>12510</v>
       </c>
       <c r="L19">
-        <v>13071</v>
+        <v>12789</v>
       </c>
       <c r="M19">
-        <v>15180</v>
+        <v>14997</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>5079</v>
-      </c>
-      <c r="C20">
-        <v>6159</v>
-      </c>
-      <c r="D20">
-        <v>6429</v>
-      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="E20">
-        <v>7500</v>
+        <v>16020</v>
       </c>
       <c r="F20">
-        <v>7995</v>
+        <v>17814</v>
       </c>
       <c r="G20">
-        <v>8934</v>
+        <v>19332</v>
       </c>
       <c r="H20">
-        <v>9975</v>
+        <v>20562</v>
       </c>
       <c r="I20">
-        <v>10923</v>
+        <v>21981</v>
       </c>
       <c r="J20">
-        <v>11358</v>
+        <v>24201</v>
       </c>
       <c r="K20">
-        <v>12510</v>
+        <v>26295</v>
       </c>
       <c r="L20">
-        <v>12789</v>
+        <v>25662</v>
       </c>
       <c r="M20">
-        <v>14997</v>
+        <v>30222</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21">
-        <v>16020</v>
+        <v>14442</v>
       </c>
       <c r="F21">
-        <v>17814</v>
+        <v>16227</v>
       </c>
       <c r="G21">
-        <v>19332</v>
+        <v>17799</v>
       </c>
       <c r="H21">
-        <v>20562</v>
+        <v>19311</v>
       </c>
       <c r="I21">
-        <v>21981</v>
+        <v>20238</v>
       </c>
       <c r="J21">
-        <v>24201</v>
+        <v>21246</v>
       </c>
       <c r="K21">
-        <v>26295</v>
+        <v>22797</v>
       </c>
       <c r="L21">
-        <v>25662</v>
+        <v>23481</v>
       </c>
       <c r="M21">
-        <v>30222</v>
+        <v>27450</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22">
-        <v>14442</v>
+        <v>13641</v>
       </c>
       <c r="F22">
-        <v>16227</v>
+        <v>15306</v>
       </c>
       <c r="G22">
-        <v>17799</v>
+        <v>17100</v>
       </c>
       <c r="H22">
-        <v>19311</v>
+        <v>18597</v>
       </c>
       <c r="I22">
-        <v>20238</v>
+        <v>19707</v>
       </c>
       <c r="J22">
-        <v>21246</v>
+        <v>21510</v>
       </c>
       <c r="K22">
-        <v>22797</v>
+        <v>23364</v>
       </c>
       <c r="L22">
-        <v>23481</v>
+        <v>23001</v>
       </c>
       <c r="M22">
-        <v>27450</v>
+        <v>26838</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23">
-        <v>13641</v>
+        <v>12390</v>
       </c>
       <c r="F23">
-        <v>15306</v>
+        <v>12816</v>
       </c>
       <c r="G23">
-        <v>17100</v>
+        <v>14040</v>
       </c>
       <c r="H23">
-        <v>18597</v>
+        <v>15771</v>
       </c>
       <c r="I23">
-        <v>19707</v>
+        <v>17154</v>
       </c>
       <c r="J23">
-        <v>21510</v>
+        <v>18456</v>
       </c>
       <c r="K23">
-        <v>23364</v>
+        <v>19980</v>
       </c>
       <c r="L23">
-        <v>23001</v>
+        <v>19419</v>
       </c>
       <c r="M23">
-        <v>26838</v>
+        <v>24006</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24">
-        <v>12390</v>
-      </c>
-      <c r="F24">
-        <v>12816</v>
-      </c>
-      <c r="G24">
-        <v>14040</v>
-      </c>
-      <c r="H24">
-        <v>15771</v>
-      </c>
-      <c r="I24">
-        <v>17154</v>
-      </c>
-      <c r="J24">
-        <v>18456</v>
-      </c>
-      <c r="K24">
-        <v>19980</v>
-      </c>
-      <c r="L24">
-        <v>19419</v>
-      </c>
-      <c r="M24">
-        <v>24006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -4670,1356 +4582,1336 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="10" width="10.775" customWidth="1"/>
+    <col min="2" max="10" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2011</v>
+        <v>36505</v>
       </c>
       <c r="C2">
-        <v>2012</v>
+        <v>40740</v>
       </c>
       <c r="D2">
-        <v>2013</v>
+        <v>44650</v>
       </c>
       <c r="E2">
-        <v>2014</v>
+        <v>40945</v>
       </c>
       <c r="F2">
-        <v>2015</v>
+        <v>44630</v>
       </c>
       <c r="G2">
-        <v>2016</v>
+        <v>48695</v>
       </c>
       <c r="H2">
-        <v>2017</v>
+        <v>52935</v>
       </c>
       <c r="I2">
-        <v>2018</v>
+        <v>57540</v>
       </c>
       <c r="J2">
-        <v>2019</v>
+        <v>62520</v>
       </c>
       <c r="K2">
-        <v>2020</v>
+        <v>64875</v>
       </c>
       <c r="L2">
-        <v>2021</v>
-      </c>
-      <c r="M2">
-        <v>2022</v>
+        <v>70845</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>36505</v>
+        <v>30715</v>
       </c>
       <c r="C3">
-        <v>40740</v>
+        <v>34580</v>
       </c>
       <c r="D3">
-        <v>44650</v>
+        <v>38035</v>
       </c>
       <c r="E3">
-        <v>40945</v>
+        <v>36555</v>
       </c>
       <c r="F3">
-        <v>44630</v>
+        <v>39755</v>
       </c>
       <c r="G3">
-        <v>48695</v>
+        <v>43120</v>
       </c>
       <c r="H3">
-        <v>52935</v>
+        <v>46845</v>
       </c>
       <c r="I3">
-        <v>57540</v>
+        <v>50735</v>
       </c>
       <c r="J3">
-        <v>62520</v>
+        <v>55230</v>
       </c>
       <c r="K3">
-        <v>64875</v>
+        <v>57445</v>
       </c>
       <c r="L3">
-        <v>70845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+        <v>62940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30715</v>
+        <v>14735</v>
       </c>
       <c r="C4">
-        <v>34580</v>
+        <v>16520</v>
       </c>
       <c r="D4">
-        <v>38035</v>
+        <v>18435</v>
       </c>
       <c r="E4">
-        <v>36555</v>
+        <v>18245</v>
       </c>
       <c r="F4">
-        <v>39755</v>
+        <v>20015</v>
       </c>
       <c r="G4">
-        <v>43120</v>
+        <v>21815</v>
       </c>
       <c r="H4">
-        <v>46845</v>
+        <v>23780</v>
       </c>
       <c r="I4">
-        <v>50735</v>
+        <v>25490</v>
       </c>
       <c r="J4">
-        <v>55230</v>
+        <v>27125</v>
       </c>
       <c r="K4">
-        <v>57445</v>
+        <v>28015</v>
       </c>
       <c r="L4">
-        <v>62940</v>
-      </c>
+        <v>30445</v>
+      </c>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14735</v>
+        <v>16110</v>
       </c>
       <c r="C5">
-        <v>16520</v>
+        <v>18030</v>
       </c>
       <c r="D5">
-        <v>18435</v>
+        <v>20035</v>
       </c>
       <c r="E5">
-        <v>18245</v>
+        <v>19540</v>
       </c>
       <c r="F5">
-        <v>20015</v>
+        <v>21395</v>
       </c>
       <c r="G5">
-        <v>21815</v>
+        <v>23320</v>
       </c>
       <c r="H5">
-        <v>23780</v>
+        <v>25315</v>
       </c>
       <c r="I5">
-        <v>25490</v>
+        <v>27160</v>
       </c>
       <c r="J5">
-        <v>27125</v>
+        <v>29405</v>
       </c>
       <c r="K5">
-        <v>28015</v>
+        <v>30730</v>
       </c>
       <c r="L5">
-        <v>30445</v>
-      </c>
-      <c r="N5" s="5"/>
+        <v>33420</v>
+      </c>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>35750</v>
+      </c>
+      <c r="E6">
+        <v>38955</v>
+      </c>
+      <c r="F6">
+        <v>42235</v>
+      </c>
+      <c r="G6">
+        <v>45790</v>
+      </c>
+      <c r="H6">
+        <v>49930</v>
+      </c>
+      <c r="I6">
+        <v>54390</v>
+      </c>
+      <c r="J6">
+        <v>59025</v>
+      </c>
+      <c r="K6">
+        <v>61740</v>
+      </c>
+      <c r="L6">
+        <v>67980</v>
+      </c>
+      <c r="M6">
+        <v>71040</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>37795</v>
+      </c>
+      <c r="E7">
+        <v>41465</v>
+      </c>
+      <c r="F7">
+        <v>44845</v>
+      </c>
+      <c r="G7">
+        <v>48420</v>
+      </c>
+      <c r="H7">
+        <v>52515</v>
+      </c>
+      <c r="I7">
+        <v>56620</v>
+      </c>
+      <c r="J7">
+        <v>61475</v>
+      </c>
+      <c r="K7">
+        <v>63700</v>
+      </c>
+      <c r="L7">
+        <v>69100</v>
+      </c>
+      <c r="M7">
+        <v>71965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>39565</v>
+      </c>
+      <c r="E8">
+        <v>43165</v>
+      </c>
+      <c r="F8">
+        <v>46745</v>
+      </c>
+      <c r="G8">
+        <v>50305</v>
+      </c>
+      <c r="H8">
+        <v>54445</v>
+      </c>
+      <c r="I8">
+        <v>59045</v>
+      </c>
+      <c r="J8">
+        <v>63935</v>
+      </c>
+      <c r="K8">
+        <v>66690</v>
+      </c>
+      <c r="L8">
+        <v>73100</v>
+      </c>
+      <c r="M8">
+        <v>76195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>28005</v>
+      </c>
+      <c r="E9">
+        <v>30410</v>
+      </c>
+      <c r="F9">
+        <v>32875</v>
+      </c>
+      <c r="G9">
+        <v>35965</v>
+      </c>
+      <c r="H9">
+        <v>38995</v>
+      </c>
+      <c r="I9">
+        <v>42555</v>
+      </c>
+      <c r="J9">
+        <v>46435</v>
+      </c>
+      <c r="K9">
+        <v>48530</v>
+      </c>
+      <c r="L9">
+        <v>53255</v>
+      </c>
+      <c r="M9">
+        <v>55780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>16110</v>
-      </c>
-      <c r="C6">
-        <v>18030</v>
-      </c>
-      <c r="D6">
-        <v>20035</v>
-      </c>
-      <c r="E6">
-        <v>19540</v>
-      </c>
-      <c r="F6">
-        <v>21395</v>
-      </c>
-      <c r="G6">
-        <v>23320</v>
-      </c>
-      <c r="H6">
-        <v>25315</v>
-      </c>
-      <c r="I6">
-        <v>27160</v>
-      </c>
-      <c r="J6">
-        <v>29405</v>
-      </c>
-      <c r="K6">
-        <v>30730</v>
-      </c>
-      <c r="L6">
-        <v>33420</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>35750</v>
-      </c>
-      <c r="E7">
-        <v>38955</v>
-      </c>
-      <c r="F7">
-        <v>42235</v>
-      </c>
-      <c r="G7">
-        <v>45790</v>
-      </c>
-      <c r="H7">
-        <v>49930</v>
-      </c>
-      <c r="I7">
-        <v>54390</v>
-      </c>
-      <c r="J7">
-        <v>59025</v>
-      </c>
-      <c r="K7">
-        <v>61740</v>
-      </c>
-      <c r="L7">
-        <v>67980</v>
-      </c>
-      <c r="M7">
-        <v>71040</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>37795</v>
-      </c>
-      <c r="E8">
-        <v>41465</v>
-      </c>
-      <c r="F8">
-        <v>44845</v>
-      </c>
-      <c r="G8">
-        <v>48420</v>
-      </c>
-      <c r="H8">
-        <v>52515</v>
-      </c>
-      <c r="I8">
-        <v>56620</v>
-      </c>
-      <c r="J8">
-        <v>61475</v>
-      </c>
-      <c r="K8">
-        <v>63700</v>
-      </c>
-      <c r="L8">
-        <v>69100</v>
-      </c>
-      <c r="M8">
-        <v>71965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>39565</v>
-      </c>
-      <c r="E9">
-        <v>43165</v>
-      </c>
-      <c r="F9">
-        <v>46745</v>
-      </c>
-      <c r="G9">
-        <v>50305</v>
-      </c>
-      <c r="H9">
-        <v>54445</v>
-      </c>
-      <c r="I9">
-        <v>59045</v>
-      </c>
-      <c r="J9">
-        <v>63935</v>
-      </c>
-      <c r="K9">
-        <v>66690</v>
-      </c>
-      <c r="L9">
-        <v>73100</v>
-      </c>
-      <c r="M9">
-        <v>76195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="D10">
+        <v>38670</v>
+      </c>
+      <c r="E10">
+        <v>42140</v>
+      </c>
+      <c r="F10">
+        <v>45495</v>
+      </c>
+      <c r="G10">
+        <v>48925</v>
+      </c>
+      <c r="H10">
+        <v>53055</v>
+      </c>
+      <c r="I10">
+        <v>57435</v>
+      </c>
+      <c r="J10">
+        <v>61940</v>
+      </c>
+      <c r="K10">
+        <v>64120</v>
+      </c>
+      <c r="L10">
+        <v>69835</v>
+      </c>
+      <c r="M10">
+        <v>72095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>35660</v>
+      </c>
+      <c r="D11">
+        <v>38995</v>
+      </c>
+      <c r="E11">
+        <v>41730</v>
+      </c>
+      <c r="F11">
+        <v>45125</v>
+      </c>
+      <c r="G11">
+        <v>48625</v>
+      </c>
+      <c r="H11">
+        <v>52655</v>
+      </c>
+      <c r="I11">
+        <v>56985</v>
+      </c>
+      <c r="J11">
+        <v>61915</v>
+      </c>
+      <c r="K11">
+        <v>64710</v>
+      </c>
+      <c r="L11">
+        <v>70480</v>
+      </c>
+      <c r="M11">
+        <v>73330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>20260</v>
+      </c>
+      <c r="C12">
+        <v>22995</v>
+      </c>
+      <c r="E12">
+        <v>25795</v>
+      </c>
+      <c r="F12">
+        <v>28105</v>
+      </c>
+      <c r="G12">
+        <v>30335</v>
+      </c>
+      <c r="H12">
+        <v>24880</v>
+      </c>
+      <c r="I12">
+        <v>35825</v>
+      </c>
+      <c r="J12">
+        <v>38950</v>
+      </c>
+      <c r="K12">
+        <v>40315</v>
+      </c>
+      <c r="L12">
+        <v>43950</v>
+      </c>
+      <c r="M12">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>23595</v>
+      </c>
+      <c r="C13">
+        <v>26570</v>
+      </c>
+      <c r="D13">
+        <v>29110</v>
+      </c>
+      <c r="E13">
+        <v>31345</v>
+      </c>
+      <c r="F13">
+        <v>34090</v>
+      </c>
+      <c r="G13">
+        <v>36825</v>
+      </c>
+      <c r="H13">
+        <v>40055</v>
+      </c>
+      <c r="I13">
+        <v>43450</v>
+      </c>
+      <c r="J13">
+        <v>47215</v>
+      </c>
+      <c r="K13">
+        <v>49100</v>
+      </c>
+      <c r="L13">
+        <v>53815</v>
+      </c>
+      <c r="M13">
+        <v>56575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>16990</v>
+      </c>
+      <c r="D14">
+        <v>18845</v>
+      </c>
+      <c r="E14">
+        <v>20395</v>
+      </c>
+      <c r="F14">
+        <v>22230</v>
+      </c>
+      <c r="G14">
+        <v>24085</v>
+      </c>
+      <c r="H14">
+        <v>26115</v>
+      </c>
+      <c r="I14">
+        <v>28280</v>
+      </c>
+      <c r="J14">
+        <v>30610</v>
+      </c>
+      <c r="K14">
+        <v>32015</v>
+      </c>
+      <c r="L14">
+        <v>35055</v>
+      </c>
+      <c r="M14">
+        <v>36755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>28005</v>
-      </c>
-      <c r="E10">
-        <v>30410</v>
-      </c>
-      <c r="F10">
-        <v>32875</v>
-      </c>
-      <c r="G10">
-        <v>35965</v>
-      </c>
-      <c r="H10">
-        <v>38995</v>
-      </c>
-      <c r="I10">
-        <v>42555</v>
-      </c>
-      <c r="J10">
-        <v>46435</v>
-      </c>
-      <c r="K10">
-        <v>48530</v>
-      </c>
-      <c r="L10">
-        <v>53255</v>
-      </c>
-      <c r="M10">
-        <v>55780</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>38670</v>
-      </c>
-      <c r="E11">
-        <v>42140</v>
-      </c>
-      <c r="F11">
-        <v>45495</v>
-      </c>
-      <c r="G11">
-        <v>48925</v>
-      </c>
-      <c r="H11">
-        <v>53055</v>
-      </c>
-      <c r="I11">
-        <v>57435</v>
-      </c>
-      <c r="J11">
-        <v>61940</v>
-      </c>
-      <c r="K11">
-        <v>64120</v>
-      </c>
-      <c r="L11">
-        <v>69835</v>
-      </c>
-      <c r="M11">
-        <v>72095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>35660</v>
-      </c>
-      <c r="D12">
-        <v>38995</v>
-      </c>
-      <c r="E12">
-        <v>41730</v>
-      </c>
-      <c r="F12">
-        <v>45125</v>
-      </c>
-      <c r="G12">
-        <v>48625</v>
-      </c>
-      <c r="H12">
-        <v>52655</v>
-      </c>
-      <c r="I12">
-        <v>56985</v>
-      </c>
-      <c r="J12">
-        <v>61915</v>
-      </c>
-      <c r="K12">
-        <v>64710</v>
-      </c>
-      <c r="L12">
-        <v>70480</v>
-      </c>
-      <c r="M12">
-        <v>73330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>20260</v>
-      </c>
-      <c r="C13">
-        <v>22995</v>
-      </c>
-      <c r="E13">
-        <v>25795</v>
-      </c>
-      <c r="F13">
-        <v>28105</v>
-      </c>
-      <c r="G13">
-        <v>30335</v>
-      </c>
-      <c r="H13">
-        <v>24880</v>
-      </c>
-      <c r="I13">
-        <v>35825</v>
-      </c>
-      <c r="J13">
-        <v>38950</v>
-      </c>
-      <c r="K13">
-        <v>40315</v>
-      </c>
-      <c r="L13">
-        <v>43950</v>
-      </c>
-      <c r="M13">
-        <v>46040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>23595</v>
-      </c>
-      <c r="C14">
-        <v>26570</v>
-      </c>
-      <c r="D14">
-        <v>29110</v>
-      </c>
-      <c r="E14">
-        <v>31345</v>
-      </c>
-      <c r="F14">
-        <v>34090</v>
-      </c>
-      <c r="G14">
-        <v>36825</v>
-      </c>
-      <c r="H14">
-        <v>40055</v>
-      </c>
-      <c r="I14">
-        <v>43450</v>
-      </c>
-      <c r="J14">
-        <v>47215</v>
-      </c>
-      <c r="K14">
-        <v>49100</v>
-      </c>
-      <c r="L14">
-        <v>53815</v>
-      </c>
-      <c r="M14">
-        <v>56575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
+      <c r="B15">
+        <v>18020</v>
       </c>
       <c r="C15">
-        <v>16990</v>
+        <v>20325</v>
       </c>
       <c r="D15">
-        <v>18845</v>
+        <v>23180</v>
       </c>
       <c r="E15">
-        <v>20395</v>
+        <v>25590</v>
       </c>
       <c r="F15">
-        <v>22230</v>
+        <v>21580</v>
       </c>
       <c r="G15">
-        <v>24085</v>
+        <v>23500</v>
       </c>
       <c r="H15">
-        <v>26115</v>
+        <v>25850</v>
       </c>
       <c r="I15">
-        <v>28280</v>
+        <v>28305</v>
       </c>
       <c r="J15">
-        <v>30610</v>
+        <v>30285</v>
       </c>
       <c r="K15">
-        <v>32015</v>
+        <v>32630</v>
       </c>
       <c r="L15">
-        <v>35055</v>
+        <v>34415</v>
       </c>
       <c r="M15">
-        <v>36755</v>
+        <v>37620</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
-        <v>18020</v>
+        <v>30655</v>
       </c>
       <c r="C16">
-        <v>20325</v>
+        <v>34435</v>
       </c>
       <c r="D16">
-        <v>23180</v>
+        <v>38050</v>
       </c>
       <c r="E16">
-        <v>25590</v>
+        <v>42045</v>
       </c>
       <c r="F16">
-        <v>21580</v>
+        <v>42950</v>
       </c>
       <c r="G16">
-        <v>23500</v>
+        <v>46730</v>
       </c>
       <c r="H16">
-        <v>25850</v>
+        <v>50940</v>
       </c>
       <c r="I16">
-        <v>28305</v>
+        <v>55400</v>
       </c>
       <c r="J16">
-        <v>30285</v>
+        <v>59980</v>
       </c>
       <c r="K16">
-        <v>32630</v>
+        <v>65050</v>
       </c>
       <c r="L16">
-        <v>34415</v>
+        <v>68300</v>
       </c>
       <c r="M16">
-        <v>37620</v>
+        <v>74415</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>26265</v>
+      </c>
+      <c r="C17">
+        <v>29825</v>
+      </c>
+      <c r="D17">
+        <v>33585</v>
+      </c>
+      <c r="F17">
+        <v>39480</v>
+      </c>
+      <c r="G17">
+        <v>42710</v>
+      </c>
+      <c r="H17">
+        <v>46055</v>
+      </c>
+      <c r="I17">
+        <v>49955</v>
+      </c>
+      <c r="J17">
+        <v>53995</v>
+      </c>
+      <c r="K17">
+        <v>58340</v>
+      </c>
+      <c r="L17">
+        <v>60525</v>
+      </c>
+      <c r="M17">
+        <v>65820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
-        <v>30655</v>
-      </c>
-      <c r="C17">
-        <v>34435</v>
-      </c>
-      <c r="D17">
-        <v>38050</v>
-      </c>
-      <c r="E17">
-        <v>42045</v>
-      </c>
-      <c r="F17">
-        <v>42950</v>
-      </c>
-      <c r="G17">
-        <v>46730</v>
-      </c>
-      <c r="H17">
-        <v>50940</v>
-      </c>
-      <c r="I17">
-        <v>55400</v>
-      </c>
-      <c r="J17">
-        <v>59980</v>
-      </c>
-      <c r="K17">
-        <v>65050</v>
-      </c>
-      <c r="L17">
-        <v>68300</v>
-      </c>
-      <c r="M17">
-        <v>74415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>26265</v>
-      </c>
-      <c r="C18">
-        <v>29825</v>
-      </c>
-      <c r="D18">
-        <v>33585</v>
+      <c r="E18">
+        <v>36385</v>
       </c>
       <c r="F18">
-        <v>39480</v>
+        <v>39805</v>
       </c>
       <c r="G18">
-        <v>42710</v>
+        <v>43190</v>
       </c>
       <c r="H18">
-        <v>46055</v>
+        <v>46550</v>
       </c>
       <c r="I18">
-        <v>49955</v>
+        <v>50650</v>
       </c>
       <c r="J18">
-        <v>53995</v>
+        <v>54880</v>
       </c>
       <c r="K18">
-        <v>58340</v>
+        <v>59345</v>
       </c>
       <c r="L18">
-        <v>60525</v>
+        <v>61545</v>
       </c>
       <c r="M18">
-        <v>65820</v>
+        <v>67370</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19">
-        <v>36385</v>
+        <v>27980</v>
       </c>
       <c r="F19">
-        <v>39805</v>
+        <v>30580</v>
       </c>
       <c r="G19">
-        <v>43190</v>
+        <v>33210</v>
       </c>
       <c r="H19">
-        <v>46550</v>
+        <v>36185</v>
       </c>
       <c r="I19">
-        <v>50650</v>
+        <v>39575</v>
       </c>
       <c r="J19">
-        <v>54880</v>
+        <v>43125</v>
       </c>
       <c r="K19">
-        <v>59345</v>
+        <v>46930</v>
       </c>
       <c r="L19">
-        <v>61545</v>
+        <v>49300</v>
       </c>
       <c r="M19">
-        <v>67370</v>
+        <v>54575</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B20">
+        <v>25380</v>
+      </c>
+      <c r="C20">
+        <v>28728</v>
+      </c>
+      <c r="D20">
+        <v>32976</v>
+      </c>
       <c r="E20">
-        <v>27980</v>
+        <v>36372</v>
       </c>
       <c r="F20">
-        <v>30580</v>
+        <v>35286</v>
       </c>
       <c r="G20">
-        <v>33210</v>
+        <v>38322</v>
       </c>
       <c r="H20">
-        <v>36185</v>
+        <v>42537</v>
       </c>
       <c r="I20">
-        <v>39575</v>
+        <v>46824</v>
       </c>
       <c r="J20">
-        <v>43125</v>
+        <v>50712</v>
       </c>
       <c r="K20">
-        <v>46930</v>
+        <v>55218</v>
       </c>
       <c r="L20">
-        <v>49300</v>
+        <v>58473</v>
       </c>
       <c r="M20">
-        <v>54575</v>
+        <v>64233</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21">
-        <v>25380</v>
+        <v>15177</v>
       </c>
       <c r="C21">
-        <v>28728</v>
+        <v>17472</v>
       </c>
       <c r="D21">
-        <v>32976</v>
+        <v>20022</v>
       </c>
       <c r="E21">
-        <v>36372</v>
+        <v>22206</v>
       </c>
       <c r="F21">
-        <v>35286</v>
+        <v>21444</v>
       </c>
       <c r="G21">
-        <v>38322</v>
+        <v>23259</v>
       </c>
       <c r="H21">
-        <v>42537</v>
+        <v>25119</v>
       </c>
       <c r="I21">
-        <v>46824</v>
+        <v>27174</v>
       </c>
       <c r="J21">
-        <v>50712</v>
+        <v>29076</v>
       </c>
       <c r="K21">
-        <v>55218</v>
+        <v>31413</v>
       </c>
       <c r="L21">
-        <v>58473</v>
+        <v>32919</v>
       </c>
       <c r="M21">
-        <v>64233</v>
+        <v>35598</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
+      <c r="A22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>15177</v>
+        <v>21150</v>
       </c>
       <c r="C22">
-        <v>17472</v>
+        <v>23922</v>
       </c>
       <c r="D22">
-        <v>20022</v>
+        <v>27015</v>
       </c>
       <c r="E22">
-        <v>22206</v>
+        <v>29772</v>
       </c>
       <c r="F22">
-        <v>21444</v>
+        <v>24975</v>
       </c>
       <c r="G22">
-        <v>23259</v>
+        <v>27114</v>
       </c>
       <c r="H22">
-        <v>25119</v>
+        <v>29556</v>
       </c>
       <c r="I22">
-        <v>27174</v>
+        <v>32475</v>
       </c>
       <c r="J22">
-        <v>29076</v>
+        <v>35463</v>
       </c>
       <c r="K22">
-        <v>31413</v>
+        <v>38595</v>
       </c>
       <c r="L22">
-        <v>32919</v>
+        <v>39921</v>
       </c>
       <c r="M22">
-        <v>35598</v>
+        <v>43620</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
-        <v>39</v>
+      <c r="A23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>21150</v>
+        <v>15303</v>
       </c>
       <c r="C23">
-        <v>23922</v>
+        <v>17583</v>
       </c>
       <c r="D23">
-        <v>27015</v>
+        <v>20226</v>
       </c>
       <c r="E23">
-        <v>29772</v>
+        <v>22371</v>
       </c>
       <c r="F23">
-        <v>24975</v>
+        <v>21315</v>
       </c>
       <c r="G23">
-        <v>27114</v>
+        <v>23127</v>
       </c>
       <c r="H23">
-        <v>29556</v>
+        <v>24885</v>
       </c>
       <c r="I23">
-        <v>32475</v>
+        <v>27117</v>
       </c>
       <c r="J23">
-        <v>35463</v>
+        <v>29046</v>
       </c>
       <c r="K23">
-        <v>38595</v>
+        <v>31239</v>
       </c>
       <c r="L23">
-        <v>39921</v>
+        <v>32925</v>
       </c>
       <c r="M23">
-        <v>43620</v>
+        <v>35988</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <v>15303</v>
+        <v>16830</v>
       </c>
       <c r="C24">
-        <v>17583</v>
+        <v>19038</v>
       </c>
       <c r="D24">
-        <v>20226</v>
+        <v>21753</v>
       </c>
       <c r="E24">
-        <v>22371</v>
+        <v>23928</v>
       </c>
       <c r="F24">
-        <v>21315</v>
+        <v>21723</v>
       </c>
       <c r="G24">
-        <v>23127</v>
+        <v>23745</v>
       </c>
       <c r="H24">
-        <v>24885</v>
+        <v>25905</v>
       </c>
       <c r="I24">
-        <v>27117</v>
+        <v>28275</v>
       </c>
       <c r="J24">
-        <v>29046</v>
+        <v>30678</v>
       </c>
       <c r="K24">
-        <v>31239</v>
+        <v>33258</v>
       </c>
       <c r="L24">
-        <v>32925</v>
+        <v>34752</v>
       </c>
       <c r="M24">
-        <v>35988</v>
+        <v>37791</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
-        <v>16830</v>
-      </c>
-      <c r="C25">
-        <v>19038</v>
-      </c>
-      <c r="D25">
-        <v>21753</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25">
-        <v>23928</v>
+        <v>40923</v>
       </c>
       <c r="F25">
-        <v>21723</v>
+        <v>44631</v>
       </c>
       <c r="G25">
-        <v>23745</v>
+        <v>48315</v>
       </c>
       <c r="H25">
-        <v>25905</v>
+        <v>52185</v>
       </c>
       <c r="I25">
-        <v>28275</v>
+        <v>56274</v>
       </c>
       <c r="J25">
-        <v>30678</v>
+        <v>61170</v>
       </c>
       <c r="K25">
-        <v>33258</v>
+        <v>66066</v>
       </c>
       <c r="L25">
-        <v>34752</v>
+        <v>68664</v>
       </c>
       <c r="M25">
-        <v>37791</v>
+        <v>74700</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26">
-        <v>40923</v>
+        <v>40425</v>
       </c>
       <c r="F26">
-        <v>44631</v>
+        <v>44154</v>
       </c>
       <c r="G26">
-        <v>48315</v>
+        <v>47850</v>
       </c>
       <c r="H26">
-        <v>52185</v>
+        <v>51558</v>
       </c>
       <c r="I26">
-        <v>56274</v>
+        <v>55656</v>
       </c>
       <c r="J26">
-        <v>61170</v>
+        <v>60132</v>
       </c>
       <c r="K26">
-        <v>66066</v>
+        <v>64884</v>
       </c>
       <c r="L26">
-        <v>68664</v>
+        <v>68007</v>
       </c>
       <c r="M26">
-        <v>74700</v>
+        <v>73869</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27">
-        <v>40425</v>
+        <v>36480</v>
       </c>
       <c r="F27">
-        <v>44154</v>
+        <v>39762</v>
       </c>
       <c r="G27">
-        <v>47850</v>
+        <v>43266</v>
       </c>
       <c r="H27">
-        <v>51558</v>
+        <v>47160</v>
       </c>
       <c r="I27">
-        <v>55656</v>
+        <v>51372</v>
       </c>
       <c r="J27">
-        <v>60132</v>
+        <v>55704</v>
       </c>
       <c r="K27">
-        <v>64884</v>
+        <v>60351</v>
       </c>
       <c r="L27">
-        <v>68007</v>
+        <v>62598</v>
       </c>
       <c r="M27">
-        <v>73869</v>
+        <v>68052</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>28311</v>
+      </c>
+      <c r="C28">
+        <v>32199</v>
+      </c>
+      <c r="D28">
+        <v>36321</v>
+      </c>
       <c r="E28">
-        <v>36480</v>
+        <v>39879</v>
       </c>
       <c r="F28">
-        <v>39762</v>
+        <v>42567</v>
       </c>
       <c r="G28">
-        <v>43266</v>
+        <v>46104</v>
       </c>
       <c r="H28">
-        <v>47160</v>
+        <v>49995</v>
       </c>
       <c r="I28">
-        <v>51372</v>
+        <v>54537</v>
       </c>
       <c r="J28">
-        <v>55704</v>
+        <v>59307</v>
       </c>
       <c r="K28">
-        <v>60351</v>
+        <v>64371</v>
       </c>
       <c r="L28">
-        <v>62598</v>
+        <v>67551</v>
       </c>
       <c r="M28">
-        <v>68052</v>
+        <v>73593</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>28311</v>
-      </c>
-      <c r="C29">
-        <v>32199</v>
-      </c>
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
       <c r="D29">
-        <v>36321</v>
+        <v>24342</v>
       </c>
       <c r="E29">
-        <v>39879</v>
+        <v>26898</v>
       </c>
       <c r="F29">
-        <v>42567</v>
+        <v>23595</v>
       </c>
       <c r="G29">
-        <v>46104</v>
+        <v>25728</v>
       </c>
       <c r="H29">
-        <v>49995</v>
+        <v>27852</v>
       </c>
       <c r="I29">
-        <v>54537</v>
+        <v>30291</v>
       </c>
       <c r="J29">
-        <v>59307</v>
+        <v>32748</v>
       </c>
       <c r="K29">
-        <v>64371</v>
+        <v>35388</v>
       </c>
       <c r="L29">
-        <v>67551</v>
+        <v>36720</v>
       </c>
       <c r="M29">
-        <v>73593</v>
+        <v>39861</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>24996</v>
+      </c>
+      <c r="C30">
+        <v>28566</v>
+      </c>
       <c r="D30">
-        <v>24342</v>
+        <v>32142</v>
       </c>
       <c r="E30">
-        <v>26898</v>
+        <v>35226</v>
       </c>
       <c r="F30">
-        <v>23595</v>
+        <v>38292</v>
       </c>
       <c r="G30">
-        <v>25728</v>
+        <v>40368</v>
       </c>
       <c r="H30">
-        <v>27852</v>
+        <v>43596</v>
       </c>
       <c r="I30">
-        <v>30291</v>
+        <v>47175</v>
       </c>
       <c r="J30">
-        <v>32748</v>
+        <v>50817</v>
       </c>
       <c r="K30">
-        <v>35388</v>
+        <v>45450</v>
       </c>
       <c r="L30">
-        <v>36720</v>
+        <v>55902</v>
       </c>
       <c r="M30">
-        <v>39861</v>
+        <v>60237</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>25320</v>
+      </c>
+      <c r="C31">
+        <v>28890</v>
+      </c>
+      <c r="D31">
+        <v>32568</v>
+      </c>
+      <c r="E31">
+        <v>35646</v>
+      </c>
+      <c r="F31">
+        <v>38760</v>
+      </c>
+      <c r="G31">
+        <v>39888</v>
+      </c>
+      <c r="H31">
+        <v>43050</v>
+      </c>
+      <c r="I31">
+        <v>46641</v>
+      </c>
+      <c r="J31">
+        <v>50145</v>
+      </c>
+      <c r="K31">
+        <v>41472</v>
+      </c>
+      <c r="L31">
+        <v>53328</v>
+      </c>
+      <c r="M31">
+        <v>57447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>21783</v>
+      </c>
+      <c r="C32">
+        <v>24954</v>
+      </c>
+      <c r="D32">
+        <v>28188</v>
+      </c>
+      <c r="E32">
+        <v>30888</v>
+      </c>
+      <c r="F32">
+        <v>33534</v>
+      </c>
+      <c r="G32">
+        <v>33792</v>
+      </c>
+      <c r="H32">
+        <v>36435</v>
+      </c>
+      <c r="I32">
+        <v>39408</v>
+      </c>
+      <c r="J32">
+        <v>42276</v>
+      </c>
+      <c r="K32">
+        <v>37542</v>
+      </c>
+      <c r="L32">
+        <v>46413</v>
+      </c>
+      <c r="M32">
+        <v>50094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>17628</v>
+      </c>
+      <c r="C33">
+        <v>20193</v>
+      </c>
+      <c r="D33">
+        <v>22959</v>
+      </c>
+      <c r="E33">
+        <v>25236</v>
+      </c>
+      <c r="F33">
+        <v>27594</v>
+      </c>
+      <c r="G33">
+        <v>25791</v>
+      </c>
+      <c r="H33">
+        <v>27705</v>
+      </c>
+      <c r="I33">
+        <v>29922</v>
+      </c>
+      <c r="J33">
+        <v>32001</v>
+      </c>
+      <c r="K33">
+        <v>26289</v>
+      </c>
+      <c r="L33">
+        <v>35097</v>
+      </c>
+      <c r="M33">
+        <v>37842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>24996</v>
-      </c>
-      <c r="C31">
-        <v>28566</v>
-      </c>
-      <c r="D31">
-        <v>32142</v>
-      </c>
-      <c r="E31">
-        <v>35226</v>
-      </c>
-      <c r="F31">
-        <v>38292</v>
-      </c>
-      <c r="G31">
-        <v>40368</v>
-      </c>
-      <c r="H31">
-        <v>43596</v>
-      </c>
-      <c r="I31">
-        <v>47175</v>
-      </c>
-      <c r="J31">
-        <v>50817</v>
-      </c>
-      <c r="K31">
-        <v>45450</v>
-      </c>
-      <c r="L31">
-        <v>55902</v>
-      </c>
-      <c r="M31">
-        <v>60237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>25320</v>
-      </c>
-      <c r="C32">
-        <v>28890</v>
-      </c>
-      <c r="D32">
-        <v>32568</v>
-      </c>
-      <c r="E32">
-        <v>35646</v>
-      </c>
-      <c r="F32">
-        <v>38760</v>
-      </c>
-      <c r="G32">
-        <v>39888</v>
-      </c>
-      <c r="H32">
-        <v>43050</v>
-      </c>
-      <c r="I32">
-        <v>46641</v>
-      </c>
-      <c r="J32">
-        <v>50145</v>
-      </c>
-      <c r="K32">
-        <v>41472</v>
-      </c>
-      <c r="L32">
-        <v>53328</v>
-      </c>
-      <c r="M32">
-        <v>57447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>21783</v>
-      </c>
-      <c r="C33">
-        <v>24954</v>
-      </c>
-      <c r="D33">
-        <v>28188</v>
-      </c>
-      <c r="E33">
-        <v>30888</v>
-      </c>
-      <c r="F33">
-        <v>33534</v>
-      </c>
-      <c r="G33">
-        <v>33792</v>
-      </c>
-      <c r="H33">
-        <v>36435</v>
-      </c>
-      <c r="I33">
-        <v>39408</v>
-      </c>
-      <c r="J33">
-        <v>42276</v>
-      </c>
-      <c r="K33">
-        <v>37542</v>
-      </c>
-      <c r="L33">
-        <v>46413</v>
-      </c>
-      <c r="M33">
-        <v>50094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="B34">
-        <v>17628</v>
+        <v>23793</v>
       </c>
       <c r="C34">
-        <v>20193</v>
+        <v>27342</v>
       </c>
       <c r="D34">
-        <v>22959</v>
+        <v>30951</v>
       </c>
       <c r="E34">
-        <v>25236</v>
+        <v>33981</v>
       </c>
       <c r="F34">
-        <v>27594</v>
+        <v>36939</v>
       </c>
       <c r="G34">
-        <v>25791</v>
+        <v>38733</v>
       </c>
       <c r="H34">
-        <v>27705</v>
+        <v>41577</v>
       </c>
       <c r="I34">
-        <v>29922</v>
+        <v>44763</v>
       </c>
       <c r="J34">
-        <v>32001</v>
+        <v>47910</v>
       </c>
       <c r="K34">
-        <v>26289</v>
+        <v>40602</v>
       </c>
       <c r="L34">
-        <v>35097</v>
+        <v>52683</v>
       </c>
       <c r="M34">
-        <v>37842</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>23793</v>
-      </c>
-      <c r="C35">
-        <v>27342</v>
-      </c>
-      <c r="D35">
-        <v>30951</v>
-      </c>
-      <c r="E35">
-        <v>33981</v>
-      </c>
-      <c r="F35">
-        <v>36939</v>
-      </c>
-      <c r="G35">
-        <v>38733</v>
-      </c>
-      <c r="H35">
-        <v>41577</v>
-      </c>
-      <c r="I35">
-        <v>44763</v>
-      </c>
-      <c r="J35">
-        <v>47910</v>
-      </c>
-      <c r="K35">
-        <v>40602</v>
-      </c>
-      <c r="L35">
-        <v>52683</v>
-      </c>
-      <c r="M35">
         <v>56625</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -6028,1110 +5920,1090 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2011</v>
+        <v>13860</v>
       </c>
       <c r="C2">
-        <v>2012</v>
+        <v>15684</v>
       </c>
       <c r="D2">
-        <v>2013</v>
+        <v>17500</v>
       </c>
       <c r="E2">
-        <v>2014</v>
+        <v>20092</v>
       </c>
       <c r="F2">
-        <v>2015</v>
+        <v>22060</v>
       </c>
       <c r="G2">
-        <v>2016</v>
+        <v>24156</v>
       </c>
       <c r="H2">
-        <v>2017</v>
+        <v>26388</v>
       </c>
       <c r="I2">
-        <v>2018</v>
+        <v>28764</v>
       </c>
       <c r="J2">
-        <v>2019</v>
+        <v>31500</v>
       </c>
       <c r="K2">
-        <v>2020</v>
+        <v>33440</v>
       </c>
       <c r="L2">
-        <v>2021</v>
-      </c>
-      <c r="M2">
-        <v>2022</v>
+        <v>37064</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13860</v>
+        <v>6732</v>
       </c>
       <c r="C3">
-        <v>15684</v>
+        <v>7772</v>
       </c>
       <c r="D3">
-        <v>17500</v>
+        <v>8772</v>
       </c>
       <c r="E3">
-        <v>20092</v>
+        <v>9884</v>
       </c>
       <c r="F3">
-        <v>22060</v>
+        <v>10800</v>
       </c>
       <c r="G3">
-        <v>24156</v>
+        <v>12044</v>
       </c>
       <c r="H3">
-        <v>26388</v>
+        <v>13300</v>
       </c>
       <c r="I3">
-        <v>28764</v>
+        <v>14620</v>
       </c>
       <c r="J3">
-        <v>31500</v>
+        <v>16028</v>
       </c>
       <c r="K3">
-        <v>33440</v>
+        <v>17312</v>
       </c>
       <c r="L3">
-        <v>37064</v>
+        <v>19144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6732</v>
+        <v>8188</v>
       </c>
       <c r="C4">
-        <v>7772</v>
+        <v>9504</v>
       </c>
       <c r="D4">
-        <v>8772</v>
+        <v>10704</v>
       </c>
       <c r="E4">
-        <v>9884</v>
+        <v>11912</v>
       </c>
       <c r="F4">
-        <v>10800</v>
+        <v>13224</v>
       </c>
       <c r="G4">
-        <v>12044</v>
+        <v>14520</v>
       </c>
       <c r="H4">
-        <v>13300</v>
+        <v>15692</v>
       </c>
       <c r="I4">
-        <v>14620</v>
+        <v>16948</v>
       </c>
       <c r="J4">
-        <v>16028</v>
+        <v>18480</v>
       </c>
       <c r="K4">
-        <v>17312</v>
+        <v>19620</v>
       </c>
       <c r="L4">
-        <v>19144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+        <v>21560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>20256</v>
+      </c>
+      <c r="E5">
+        <v>22404</v>
+      </c>
+      <c r="F5">
+        <v>24408</v>
+      </c>
+      <c r="G5">
+        <v>26508</v>
+      </c>
+      <c r="H5">
+        <v>28996</v>
+      </c>
+      <c r="I5">
+        <v>31764</v>
+      </c>
+      <c r="J5">
+        <v>34800</v>
+      </c>
+      <c r="K5">
+        <v>37244</v>
+      </c>
+      <c r="L5">
+        <v>41300</v>
+      </c>
+      <c r="M5">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>21400</v>
+      </c>
+      <c r="E6">
+        <v>23780</v>
+      </c>
+      <c r="F6">
+        <v>25900</v>
+      </c>
+      <c r="G6">
+        <v>28308</v>
+      </c>
+      <c r="H6">
+        <v>30788</v>
+      </c>
+      <c r="I6">
+        <v>33812</v>
+      </c>
+      <c r="J6">
+        <v>36784</v>
+      </c>
+      <c r="K6">
+        <v>39096</v>
+      </c>
+      <c r="L6">
+        <v>42944</v>
+      </c>
+      <c r="M6">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>21304</v>
+      </c>
+      <c r="E7">
+        <v>23536</v>
+      </c>
+      <c r="F7">
+        <v>25648</v>
+      </c>
+      <c r="G7">
+        <v>27744</v>
+      </c>
+      <c r="H7">
+        <v>30328</v>
+      </c>
+      <c r="I7">
+        <v>33096</v>
+      </c>
+      <c r="J7">
+        <v>36120</v>
+      </c>
+      <c r="K7">
+        <v>38696</v>
+      </c>
+      <c r="L7">
+        <v>42636</v>
+      </c>
+      <c r="M7">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>12168</v>
+      </c>
+      <c r="E8">
+        <v>13632</v>
+      </c>
+      <c r="F8">
+        <v>15000</v>
+      </c>
+      <c r="G8">
+        <v>16456</v>
+      </c>
+      <c r="H8">
+        <v>18072</v>
+      </c>
+      <c r="I8">
+        <v>19920</v>
+      </c>
+      <c r="J8">
+        <v>21928</v>
+      </c>
+      <c r="K8">
+        <v>23636</v>
+      </c>
+      <c r="L8">
+        <v>26384</v>
+      </c>
+      <c r="M8">
+        <v>28468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>8188</v>
-      </c>
-      <c r="C5">
-        <v>9504</v>
-      </c>
-      <c r="D5">
-        <v>10704</v>
-      </c>
-      <c r="E5">
-        <v>11912</v>
-      </c>
-      <c r="F5">
-        <v>13224</v>
-      </c>
-      <c r="G5">
-        <v>14520</v>
-      </c>
-      <c r="H5">
-        <v>15692</v>
-      </c>
-      <c r="I5">
-        <v>16948</v>
-      </c>
-      <c r="J5">
-        <v>18480</v>
-      </c>
-      <c r="K5">
-        <v>19620</v>
-      </c>
-      <c r="L5">
-        <v>21560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>20256</v>
-      </c>
-      <c r="E6">
-        <v>22404</v>
-      </c>
-      <c r="F6">
-        <v>24408</v>
-      </c>
-      <c r="G6">
-        <v>26508</v>
-      </c>
-      <c r="H6">
+      <c r="D9">
+        <v>22396</v>
+      </c>
+      <c r="E9">
+        <v>24676</v>
+      </c>
+      <c r="F9">
+        <v>26836</v>
+      </c>
+      <c r="G9">
         <v>28996</v>
       </c>
-      <c r="I6">
-        <v>31764</v>
-      </c>
-      <c r="J6">
-        <v>34800</v>
-      </c>
-      <c r="K6">
-        <v>37244</v>
-      </c>
-      <c r="L6">
-        <v>41300</v>
-      </c>
-      <c r="M6">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>21400</v>
-      </c>
-      <c r="E7">
-        <v>23780</v>
-      </c>
-      <c r="F7">
-        <v>25900</v>
-      </c>
-      <c r="G7">
-        <v>28308</v>
-      </c>
-      <c r="H7">
-        <v>30788</v>
-      </c>
-      <c r="I7">
-        <v>33812</v>
-      </c>
-      <c r="J7">
-        <v>36784</v>
-      </c>
-      <c r="K7">
-        <v>39096</v>
-      </c>
-      <c r="L7">
-        <v>42944</v>
-      </c>
-      <c r="M7">
-        <v>45924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>21304</v>
-      </c>
-      <c r="E8">
-        <v>23536</v>
-      </c>
-      <c r="F8">
-        <v>25648</v>
-      </c>
-      <c r="G8">
-        <v>27744</v>
-      </c>
-      <c r="H8">
-        <v>30328</v>
-      </c>
-      <c r="I8">
-        <v>33096</v>
-      </c>
-      <c r="J8">
-        <v>36120</v>
-      </c>
-      <c r="K8">
-        <v>38696</v>
-      </c>
-      <c r="L8">
-        <v>42636</v>
-      </c>
-      <c r="M8">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="H9">
+        <v>31436</v>
+      </c>
+      <c r="I9">
+        <v>34276</v>
+      </c>
+      <c r="J9">
+        <v>37412</v>
+      </c>
+      <c r="K9">
+        <v>39800</v>
+      </c>
+      <c r="L9">
+        <v>43596</v>
+      </c>
+      <c r="M9">
+        <v>46276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>18508</v>
+      </c>
+      <c r="D10">
+        <v>20584</v>
+      </c>
+      <c r="E10">
+        <v>22264</v>
+      </c>
+      <c r="F10">
+        <v>24152</v>
+      </c>
+      <c r="G10">
+        <v>26156</v>
+      </c>
+      <c r="H10">
+        <v>28356</v>
+      </c>
+      <c r="I10">
+        <v>30784</v>
+      </c>
+      <c r="J10">
+        <v>33572</v>
+      </c>
+      <c r="K10">
+        <v>35748</v>
+      </c>
+      <c r="L10">
+        <v>39620</v>
+      </c>
+      <c r="M10">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>10024</v>
+      </c>
+      <c r="G11">
+        <v>14316</v>
+      </c>
+      <c r="H11">
+        <v>11928</v>
+      </c>
+      <c r="I11">
+        <v>17056</v>
+      </c>
+      <c r="J11">
+        <v>18564</v>
+      </c>
+      <c r="K11">
+        <v>19728</v>
+      </c>
+      <c r="L11">
+        <v>21884</v>
+      </c>
+      <c r="M11">
+        <v>23404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>11044</v>
+      </c>
+      <c r="C12">
+        <v>12492</v>
+      </c>
+      <c r="D12">
+        <v>13980</v>
+      </c>
+      <c r="E12">
+        <v>15076</v>
+      </c>
+      <c r="F12">
+        <v>16408</v>
+      </c>
+      <c r="G12">
+        <v>17860</v>
+      </c>
+      <c r="H12">
+        <v>19492</v>
+      </c>
+      <c r="I12">
+        <v>21216</v>
+      </c>
+      <c r="J12">
+        <v>23116</v>
+      </c>
+      <c r="K12">
+        <v>24612</v>
+      </c>
+      <c r="L12">
+        <v>27400</v>
+      </c>
+      <c r="M12">
+        <v>29416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>10700</v>
+      </c>
+      <c r="F13">
+        <v>12772</v>
+      </c>
+      <c r="G13">
+        <v>13928</v>
+      </c>
+      <c r="H13">
+        <v>15268</v>
+      </c>
+      <c r="I13">
+        <v>16636</v>
+      </c>
+      <c r="J13">
+        <v>18120</v>
+      </c>
+      <c r="K13">
+        <v>19464</v>
+      </c>
+      <c r="L13">
+        <v>21576</v>
+      </c>
+      <c r="M13">
+        <v>23056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>12168</v>
-      </c>
-      <c r="E9">
-        <v>13632</v>
-      </c>
-      <c r="F9">
-        <v>15000</v>
-      </c>
-      <c r="G9">
-        <v>16456</v>
-      </c>
-      <c r="H9">
-        <v>18072</v>
-      </c>
-      <c r="I9">
-        <v>19920</v>
-      </c>
-      <c r="J9">
-        <v>21928</v>
-      </c>
-      <c r="K9">
-        <v>23636</v>
-      </c>
-      <c r="L9">
-        <v>26384</v>
-      </c>
-      <c r="M9">
-        <v>28468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>22396</v>
-      </c>
-      <c r="E10">
-        <v>24676</v>
-      </c>
-      <c r="F10">
-        <v>26836</v>
-      </c>
-      <c r="G10">
-        <v>28996</v>
-      </c>
-      <c r="H10">
-        <v>31436</v>
-      </c>
-      <c r="I10">
-        <v>34276</v>
-      </c>
-      <c r="J10">
-        <v>37412</v>
-      </c>
-      <c r="K10">
-        <v>39800</v>
-      </c>
-      <c r="L10">
-        <v>43596</v>
-      </c>
-      <c r="M10">
-        <v>46276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>18508</v>
-      </c>
-      <c r="D11">
-        <v>20584</v>
-      </c>
-      <c r="E11">
-        <v>22264</v>
-      </c>
-      <c r="F11">
-        <v>24152</v>
-      </c>
-      <c r="G11">
-        <v>26156</v>
-      </c>
-      <c r="H11">
-        <v>28356</v>
-      </c>
-      <c r="I11">
-        <v>30784</v>
-      </c>
-      <c r="J11">
-        <v>33572</v>
-      </c>
-      <c r="K11">
-        <v>35748</v>
-      </c>
-      <c r="L11">
-        <v>39620</v>
-      </c>
-      <c r="M11">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>10024</v>
-      </c>
-      <c r="G12">
-        <v>14316</v>
-      </c>
-      <c r="H12">
-        <v>11928</v>
-      </c>
-      <c r="I12">
-        <v>17056</v>
-      </c>
-      <c r="J12">
-        <v>18564</v>
-      </c>
-      <c r="K12">
-        <v>19728</v>
-      </c>
-      <c r="L12">
-        <v>21884</v>
-      </c>
-      <c r="M12">
-        <v>23404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>11044</v>
-      </c>
-      <c r="C13">
-        <v>12492</v>
-      </c>
-      <c r="D13">
-        <v>13980</v>
-      </c>
-      <c r="E13">
-        <v>15076</v>
-      </c>
-      <c r="F13">
-        <v>16408</v>
-      </c>
-      <c r="G13">
-        <v>17860</v>
-      </c>
-      <c r="H13">
-        <v>19492</v>
-      </c>
-      <c r="I13">
-        <v>21216</v>
-      </c>
-      <c r="J13">
-        <v>23116</v>
-      </c>
-      <c r="K13">
-        <v>24612</v>
-      </c>
-      <c r="L13">
-        <v>27400</v>
-      </c>
-      <c r="M13">
-        <v>29416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
+      <c r="B14">
+        <v>6316</v>
+      </c>
+      <c r="C14">
+        <v>7460</v>
+      </c>
+      <c r="D14">
+        <v>8576</v>
       </c>
       <c r="E14">
-        <v>10700</v>
+        <v>9580</v>
       </c>
       <c r="F14">
-        <v>12772</v>
+        <v>10532</v>
       </c>
       <c r="G14">
-        <v>13928</v>
+        <v>11604</v>
       </c>
       <c r="H14">
-        <v>15268</v>
+        <v>12788</v>
       </c>
       <c r="I14">
-        <v>16636</v>
+        <v>14104</v>
       </c>
       <c r="J14">
-        <v>18120</v>
+        <v>15432</v>
       </c>
       <c r="K14">
-        <v>19464</v>
+        <v>16940</v>
       </c>
       <c r="L14">
-        <v>21576</v>
+        <v>18288</v>
       </c>
       <c r="M14">
-        <v>23056</v>
+        <v>20252</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>6316</v>
+        <v>12672</v>
       </c>
       <c r="C15">
-        <v>7460</v>
+        <v>14816</v>
       </c>
       <c r="D15">
-        <v>8576</v>
+        <v>16788</v>
       </c>
       <c r="E15">
-        <v>9580</v>
+        <v>18884</v>
       </c>
       <c r="F15">
-        <v>10532</v>
+        <v>17660</v>
       </c>
       <c r="G15">
-        <v>11604</v>
+        <v>19320</v>
       </c>
       <c r="H15">
-        <v>12788</v>
+        <v>21448</v>
       </c>
       <c r="I15">
-        <v>14104</v>
+        <v>23480</v>
       </c>
       <c r="J15">
-        <v>15432</v>
+        <v>26020</v>
       </c>
       <c r="K15">
-        <v>16940</v>
+        <v>28864</v>
       </c>
       <c r="L15">
-        <v>18288</v>
+        <v>31264</v>
       </c>
       <c r="M15">
-        <v>20252</v>
+        <v>34532</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>12636</v>
+      </c>
+      <c r="C16">
+        <v>14836</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16">
+        <v>20132</v>
+      </c>
+      <c r="G16">
+        <v>21912</v>
+      </c>
+      <c r="H16">
+        <v>23776</v>
+      </c>
+      <c r="I16">
+        <v>25832</v>
+      </c>
+      <c r="J16">
+        <v>28012</v>
+      </c>
+      <c r="K16">
+        <v>30488</v>
+      </c>
+      <c r="L16">
+        <v>32364</v>
+      </c>
+      <c r="M16">
+        <v>35820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>12672</v>
-      </c>
-      <c r="C16">
-        <v>14816</v>
-      </c>
-      <c r="D16">
-        <v>16788</v>
-      </c>
-      <c r="E16">
-        <v>18884</v>
-      </c>
-      <c r="F16">
-        <v>17660</v>
-      </c>
-      <c r="G16">
-        <v>19320</v>
-      </c>
-      <c r="H16">
-        <v>21448</v>
-      </c>
-      <c r="I16">
-        <v>23480</v>
-      </c>
-      <c r="J16">
-        <v>26020</v>
-      </c>
-      <c r="K16">
-        <v>28864</v>
-      </c>
-      <c r="L16">
-        <v>31264</v>
-      </c>
-      <c r="M16">
-        <v>34532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>12636</v>
-      </c>
-      <c r="C17">
-        <v>14836</v>
-      </c>
+      <c r="B17"/>
+      <c r="C17"/>
       <c r="D17"/>
-      <c r="E17"/>
+      <c r="E17">
+        <v>16660</v>
+      </c>
       <c r="F17">
-        <v>20132</v>
+        <v>18544</v>
       </c>
       <c r="G17">
-        <v>21912</v>
+        <v>20296</v>
       </c>
       <c r="H17">
-        <v>23776</v>
+        <v>21896</v>
       </c>
       <c r="I17">
-        <v>25832</v>
+        <v>23920</v>
       </c>
       <c r="J17">
-        <v>28012</v>
+        <v>26216</v>
       </c>
       <c r="K17">
-        <v>30488</v>
+        <v>28508</v>
       </c>
       <c r="L17">
-        <v>32364</v>
+        <v>30364</v>
       </c>
       <c r="M17">
-        <v>35820</v>
+        <v>33708</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18">
-        <v>16660</v>
+        <v>13808</v>
       </c>
       <c r="F18">
-        <v>18544</v>
+        <v>15352</v>
       </c>
       <c r="G18">
-        <v>20296</v>
+        <v>16884</v>
       </c>
       <c r="H18">
-        <v>21896</v>
+        <v>18420</v>
       </c>
       <c r="I18">
-        <v>23920</v>
+        <v>20224</v>
       </c>
       <c r="J18">
-        <v>26216</v>
+        <v>22252</v>
       </c>
       <c r="K18">
-        <v>28508</v>
+        <v>24424</v>
       </c>
       <c r="L18">
-        <v>30364</v>
+        <v>26288</v>
       </c>
       <c r="M18">
-        <v>33708</v>
+        <v>29264</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="B19">
+        <v>10185</v>
+      </c>
+      <c r="C19">
+        <v>11856</v>
+      </c>
+      <c r="D19">
+        <v>13398</v>
+      </c>
       <c r="E19">
-        <v>13808</v>
+        <v>14940</v>
       </c>
       <c r="F19">
-        <v>15352</v>
+        <v>18393</v>
       </c>
       <c r="G19">
-        <v>16884</v>
+        <v>20508</v>
       </c>
       <c r="H19">
-        <v>18420</v>
+        <v>22887</v>
       </c>
       <c r="I19">
-        <v>20224</v>
+        <v>23496</v>
       </c>
       <c r="J19">
-        <v>22252</v>
+        <v>26196</v>
       </c>
       <c r="K19">
-        <v>24424</v>
+        <v>29067</v>
       </c>
       <c r="L19">
-        <v>26288</v>
+        <v>31116</v>
       </c>
       <c r="M19">
-        <v>29264</v>
+        <v>34392</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20">
-        <v>10185</v>
+        <v>6516</v>
       </c>
       <c r="C20">
-        <v>11856</v>
+        <v>7893</v>
       </c>
       <c r="D20">
-        <v>13398</v>
+        <v>9030</v>
       </c>
       <c r="E20">
-        <v>14940</v>
+        <v>10095</v>
       </c>
       <c r="F20">
-        <v>18393</v>
+        <v>11190</v>
       </c>
       <c r="G20">
-        <v>20508</v>
+        <v>12453</v>
       </c>
       <c r="H20">
-        <v>22887</v>
+        <v>13662</v>
       </c>
       <c r="I20">
-        <v>23496</v>
+        <v>14904</v>
       </c>
       <c r="J20">
-        <v>26196</v>
+        <v>16245</v>
       </c>
       <c r="K20">
-        <v>29067</v>
+        <v>17733</v>
       </c>
       <c r="L20">
-        <v>31116</v>
+        <v>18960</v>
       </c>
       <c r="M20">
-        <v>34392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
+        <v>20817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B21">
-        <v>6516</v>
+        <v>8586</v>
       </c>
       <c r="C21">
-        <v>7893</v>
+        <v>9993</v>
       </c>
       <c r="D21">
-        <v>9030</v>
+        <v>11343</v>
       </c>
       <c r="E21">
-        <v>10095</v>
+        <v>12684</v>
       </c>
       <c r="F21">
-        <v>11190</v>
+        <v>12744</v>
       </c>
       <c r="G21">
-        <v>12453</v>
+        <v>13815</v>
       </c>
       <c r="H21">
-        <v>13662</v>
+        <v>15225</v>
       </c>
       <c r="I21">
-        <v>14904</v>
+        <v>16473</v>
       </c>
       <c r="J21">
-        <v>16245</v>
+        <v>18153</v>
       </c>
       <c r="K21">
-        <v>17733</v>
+        <v>19872</v>
       </c>
       <c r="L21">
-        <v>18960</v>
+        <v>21129</v>
       </c>
       <c r="M21">
-        <v>20817</v>
-      </c>
+        <v>23376</v>
+      </c>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22">
-        <v>8586</v>
+        <v>6909</v>
       </c>
       <c r="C22">
-        <v>9993</v>
+        <v>8256</v>
       </c>
       <c r="D22">
-        <v>11343</v>
+        <v>9561</v>
       </c>
       <c r="E22">
-        <v>12684</v>
+        <v>10689</v>
       </c>
       <c r="F22">
-        <v>12744</v>
+        <v>11379</v>
       </c>
       <c r="G22">
-        <v>13815</v>
+        <v>12405</v>
       </c>
       <c r="H22">
-        <v>15225</v>
+        <v>13335</v>
       </c>
       <c r="I22">
-        <v>16473</v>
+        <v>14481</v>
       </c>
       <c r="J22">
-        <v>18153</v>
+        <v>15888</v>
       </c>
       <c r="K22">
-        <v>19872</v>
+        <v>17340</v>
       </c>
       <c r="L22">
-        <v>21129</v>
+        <v>18756</v>
       </c>
       <c r="M22">
-        <v>23376</v>
-      </c>
-      <c r="N22" s="5"/>
+        <v>20691</v>
+      </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23">
-        <v>6909</v>
+        <v>7524</v>
       </c>
       <c r="C23">
-        <v>8256</v>
+        <v>9012</v>
       </c>
       <c r="D23">
-        <v>9561</v>
+        <v>10365</v>
       </c>
       <c r="E23">
-        <v>10689</v>
+        <v>11661</v>
       </c>
       <c r="F23">
-        <v>11379</v>
+        <v>12642</v>
       </c>
       <c r="G23">
-        <v>12405</v>
+        <v>13980</v>
       </c>
       <c r="H23">
-        <v>13335</v>
+        <v>15114</v>
       </c>
       <c r="I23">
-        <v>14481</v>
+        <v>16428</v>
       </c>
       <c r="J23">
-        <v>15888</v>
+        <v>17694</v>
       </c>
       <c r="K23">
-        <v>17340</v>
+        <v>19215</v>
       </c>
       <c r="L23">
-        <v>18756</v>
+        <v>20625</v>
       </c>
       <c r="M23">
-        <v>20691</v>
-      </c>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="3" t="s">
+        <v>22686</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
-        <v>7524</v>
-      </c>
-      <c r="C24">
-        <v>9012</v>
-      </c>
-      <c r="D24">
-        <v>10365</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24">
-        <v>11661</v>
+        <v>35763</v>
       </c>
       <c r="F24">
-        <v>12642</v>
+        <v>39237</v>
       </c>
       <c r="G24">
-        <v>13980</v>
+        <v>42642</v>
       </c>
       <c r="H24">
-        <v>15114</v>
+        <v>46116</v>
       </c>
       <c r="I24">
-        <v>16428</v>
+        <v>49830</v>
       </c>
       <c r="J24">
-        <v>17694</v>
+        <v>54348</v>
       </c>
       <c r="K24">
-        <v>19215</v>
+        <v>59259</v>
       </c>
       <c r="L24">
-        <v>20625</v>
+        <v>61878</v>
       </c>
       <c r="M24">
-        <v>22686</v>
-      </c>
-      <c r="N24" s="6"/>
+        <v>67707</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25">
-        <v>35763</v>
+        <v>34656</v>
       </c>
       <c r="F25">
-        <v>39237</v>
+        <v>38073</v>
       </c>
       <c r="G25">
-        <v>42642</v>
+        <v>41373</v>
       </c>
       <c r="H25">
-        <v>46116</v>
+        <v>44640</v>
       </c>
       <c r="I25">
-        <v>49830</v>
+        <v>48231</v>
       </c>
       <c r="J25">
-        <v>54348</v>
+        <v>52401</v>
       </c>
       <c r="K25">
-        <v>59259</v>
+        <v>56982</v>
       </c>
       <c r="L25">
-        <v>61878</v>
+        <v>59952</v>
       </c>
       <c r="M25">
-        <v>67707</v>
+        <v>65436</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26">
-        <v>34656</v>
+        <v>28215</v>
       </c>
       <c r="F26">
-        <v>38073</v>
+        <v>30948</v>
       </c>
       <c r="G26">
-        <v>41373</v>
+        <v>33786</v>
       </c>
       <c r="H26">
-        <v>44640</v>
+        <v>36915</v>
       </c>
       <c r="I26">
-        <v>48231</v>
+        <v>40437</v>
       </c>
       <c r="J26">
-        <v>52401</v>
+        <v>43971</v>
       </c>
       <c r="K26">
-        <v>56982</v>
+        <v>47988</v>
       </c>
       <c r="L26">
-        <v>59952</v>
+        <v>50643</v>
       </c>
       <c r="M26">
-        <v>65436</v>
+        <v>55497</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27">
-        <v>28215</v>
+        <v>30600</v>
       </c>
       <c r="F27">
-        <v>30948</v>
+        <v>33477</v>
       </c>
       <c r="G27">
-        <v>33786</v>
+        <v>36459</v>
       </c>
       <c r="H27">
-        <v>36915</v>
+        <v>39600</v>
       </c>
       <c r="I27">
-        <v>40437</v>
+        <v>43185</v>
       </c>
       <c r="J27">
-        <v>43971</v>
+        <v>46920</v>
       </c>
       <c r="K27">
-        <v>47988</v>
+        <v>51489</v>
       </c>
       <c r="L27">
-        <v>50643</v>
+        <v>54024</v>
       </c>
       <c r="M27">
-        <v>55497</v>
+        <v>59586</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
-        <v>23</v>
+      <c r="A28" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28">
-        <v>30600</v>
+        <v>16530</v>
       </c>
       <c r="F28">
-        <v>33477</v>
+        <v>17661</v>
       </c>
       <c r="G28">
-        <v>36459</v>
+        <v>19482</v>
       </c>
       <c r="H28">
-        <v>39600</v>
+        <v>21156</v>
       </c>
       <c r="I28">
-        <v>43185</v>
+        <v>23133</v>
       </c>
       <c r="J28">
-        <v>46920</v>
+        <v>25263</v>
       </c>
       <c r="K28">
-        <v>51489</v>
+        <v>27636</v>
       </c>
       <c r="L28">
-        <v>54024</v>
+        <v>29619</v>
       </c>
       <c r="M28">
-        <v>59586</v>
+        <v>32700</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29">
-        <v>16530</v>
-      </c>
+      <c r="E29"/>
       <c r="F29">
-        <v>17661</v>
+        <v>11697</v>
       </c>
       <c r="G29">
-        <v>19482</v>
+        <v>12777</v>
       </c>
       <c r="H29">
-        <v>21156</v>
+        <v>13932</v>
       </c>
       <c r="I29">
-        <v>23133</v>
+        <v>15273</v>
       </c>
       <c r="J29">
-        <v>25263</v>
+        <v>16605</v>
       </c>
       <c r="K29">
-        <v>27636</v>
+        <v>18060</v>
       </c>
       <c r="L29">
-        <v>29619</v>
+        <v>19236</v>
       </c>
       <c r="M29">
-        <v>32700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30">
-        <v>11697</v>
-      </c>
-      <c r="G30">
-        <v>12777</v>
-      </c>
-      <c r="H30">
-        <v>13932</v>
-      </c>
-      <c r="I30">
-        <v>15273</v>
-      </c>
-      <c r="J30">
-        <v>16605</v>
-      </c>
-      <c r="K30">
-        <v>18060</v>
-      </c>
-      <c r="L30">
-        <v>19236</v>
-      </c>
-      <c r="M30">
         <v>21372</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
